--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P11_trail14 Features.xlsx
@@ -5918,7 +5918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5929,29 +5929,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5972,115 +5970,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6097,72 +6085,66 @@
         <v>2.219564538060416e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.558401509278674</v>
+        <v>1.362702868890528e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.562729941626191</v>
+        <v>3.051737573946981e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.362702868890528e-06</v>
+        <v>-0.09986705926610911</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.051737573946981e-06</v>
+        <v>0.2596688168313218</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09986705926610911</v>
+        <v>0.07718806089931919</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2596688168313218</v>
+        <v>1.901208429799757</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07718806089931919</v>
+        <v>2.370430479211971</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.920435410067641</v>
+        <v>5.428219696884993</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.370430479211971</v>
+        <v>1.361070007838283e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.428219696884993</v>
+        <v>1340935658.150627</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.361070007838283e-16</v>
+        <v>8.91747809017851e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1340935658.150627</v>
+        <v>244.7351467571937</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.91747809017851e-08</v>
+        <v>0.0001492410972547063</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>244.7351467571937</v>
+        <v>9.534183280633332</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001492410972547063</v>
+        <v>1.211318632730295</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.534183280633332</v>
+        <v>0.01356611287084334</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.211318632730295</v>
+        <v>3.101661350094725</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01356611287084334</v>
+        <v>0.9580135108951179</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.101661350094725</v>
+        <v>1.270863792197744</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9580135108951179</v>
+        <v>45</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.270863792197744</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.7241730717675663</v>
       </c>
     </row>
@@ -6177,72 +6159,66 @@
         <v>1.786817375234577e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.095184451233309</v>
+        <v>1.017289824039282e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.761830040880537</v>
+        <v>3.032717695302279e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.017289824039282e-06</v>
+        <v>-0.09096807617040091</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.032717695302279e-06</v>
+        <v>0.2194325260726109</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09096807617040091</v>
+        <v>0.05625709653349942</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2194325260726109</v>
+        <v>1.88500536923478</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05625709653349942</v>
+        <v>1.899357931887625</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.881821461189393</v>
+        <v>5.746461178938858</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.899357931887625</v>
+        <v>3.895337321840305e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.746461178938858</v>
+        <v>467323145.5880515</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.895337321840305e-16</v>
+        <v>2.558904333905922e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>467323145.5880515</v>
+        <v>85.07063107848526</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.558904333905922e-07</v>
+        <v>0.0001916129798355266</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>85.07063107848526</v>
+        <v>8.690205832566717</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001916129798355266</v>
+        <v>1.781977471245517</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.690205832566717</v>
+        <v>0.01447055042520319</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.781977471245517</v>
+        <v>3.078291099960794</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01447055042520319</v>
+        <v>0.9579728132079415</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.078291099960794</v>
+        <v>1.46533226631999</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9579728132079415</v>
+        <v>45</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.46533226631999</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.497300708092803</v>
       </c>
     </row>
@@ -6257,72 +6233,66 @@
         <v>1.506778071811627e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.741625671789265</v>
+        <v>7.756711811213811e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.724475232865926</v>
+        <v>3.018650501147238e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.756711811213811e-07</v>
+        <v>-0.08081646584077136</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.018650501147238e-06</v>
+        <v>0.1712902342006417</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08081646584077136</v>
+        <v>0.03576030368857881</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1712902342006417</v>
+        <v>1.880129268118507</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03576030368857881</v>
+        <v>1.846016973267739</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.87606040555263</v>
+        <v>4.39032402418984</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.846016973267739</v>
+        <v>7.049126576106431e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.39032402418984</v>
+        <v>253034583.2152193</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.049126576106431e-16</v>
+        <v>4.707008788150471e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>253034583.2152193</v>
+        <v>45.1330904860257</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.707008788150471e-07</v>
+        <v>0.000230006325460876</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>45.1330904860257</v>
+        <v>10.12967540133168</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000230006325460876</v>
+        <v>1.5747944494516</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.12967540133168</v>
+        <v>0.0236010235169474</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.5747944494516</v>
+        <v>2.801259023124366</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0236010235169474</v>
+        <v>0.9560407809040776</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.801259023124366</v>
+        <v>1.472587035493077</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9560407809040776</v>
+        <v>45</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.472587035493077</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3377574553742348</v>
       </c>
     </row>
@@ -6337,72 +6307,66 @@
         <v>1.325595646239243e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.552665122046876</v>
+        <v>6.148587254719713e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.71417558707267</v>
+        <v>3.00791155693563e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.148587254719713e-07</v>
+        <v>-0.07187065187630819</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.00791155693563e-06</v>
+        <v>0.1271342209214758</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07187065187630819</v>
+        <v>0.02127050631871652</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1271342209214758</v>
+        <v>1.874750628485596</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02127050631871652</v>
+        <v>1.871657378358399</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.863121681773783</v>
+        <v>4.224105803024742</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.871657378358399</v>
+        <v>7.614806676838501e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.224105803024742</v>
+        <v>232740983.5098249</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.614806676838501e-16</v>
+        <v>5.086399776225652e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>232740983.5098249</v>
+        <v>41.24816305603399</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.086399776225652e-07</v>
+        <v>0.0001953860474376537</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>41.24816305603399</v>
+        <v>12.20055797186938</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001953860474376537</v>
+        <v>1.128330017223013</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.20055797186938</v>
+        <v>0.02908391944745301</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.128330017223013</v>
+        <v>2.696691734522638</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02908391944745301</v>
+        <v>0.9554016529368927</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.696691734522638</v>
+        <v>1.522140841914577</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9554016529368927</v>
+        <v>45</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.522140841914577</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2966392461874407</v>
       </c>
     </row>
@@ -6417,72 +6381,66 @@
         <v>1.200506968999953e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.486440302434501</v>
+        <v>5.181110438079687e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.40227789982642</v>
+        <v>2.99924550639421e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.181110438079687e-07</v>
+        <v>-0.06637784682662651</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.99924550639421e-06</v>
+        <v>0.102214174329468</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06637784682662651</v>
+        <v>0.01483133453489141</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.102214174329468</v>
+        <v>1.869704596837599</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01483133453489141</v>
+        <v>1.977379096243641</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.856020199712678</v>
+        <v>4.220648956960421</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.977379096243641</v>
+        <v>7.627285323859805e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.220648956960421</v>
+        <v>231323026.5499681</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.627285323859805e-16</v>
+        <v>5.125035061019792e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>231323026.5499681</v>
+        <v>40.81386508810271</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.125035061019792e-07</v>
+        <v>0.00017250540725758</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>40.81386508810271</v>
+        <v>12.28049649763287</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.00017250540725758</v>
+        <v>1.071770907773831</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>12.28049649763287</v>
+        <v>0.02601564297612318</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.071770907773831</v>
+        <v>2.615634034453993</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02601564297612318</v>
+        <v>0.956045572911699</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.615634034453993</v>
+        <v>1.531999209899422</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.956045572911699</v>
+        <v>47</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.531999209899422</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2633589003636981</v>
       </c>
     </row>
@@ -6497,72 +6455,66 @@
         <v>1.10213936826123e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.475451276119838</v>
+        <v>4.624079647236004e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.388999178395627</v>
+        <v>2.991758874585707e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.624079647236004e-07</v>
+        <v>-0.06424906396444696</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.991758874585707e-06</v>
+        <v>0.09563441562026208</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.06424906396444696</v>
+        <v>0.01326403201656101</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09563441562026208</v>
+        <v>1.867394179647666</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01326403201656101</v>
+        <v>1.944234528935221</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.854191602053849</v>
+        <v>4.178438085178494</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.944234528935221</v>
+        <v>7.782166434419299e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.178438085178494</v>
+        <v>225856467.2127026</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.782166434419299e-16</v>
+        <v>5.243984446216943e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>225856467.2127026</v>
+        <v>39.69772109200811</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.243984446216943e-07</v>
+        <v>0.0001554187712065637</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>39.69772109200811</v>
+        <v>9.979059446604673</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001554187712065637</v>
+        <v>1.204271173565957</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.979059446604673</v>
+        <v>0.015476854171299</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.204271173565957</v>
+        <v>2.851095221693003</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.015476854171299</v>
+        <v>0.9563936577006636</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.851095221693003</v>
+        <v>1.535356429249682</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9563936577006636</v>
+        <v>45</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.535356429249682</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2300628368094955</v>
       </c>
     </row>
@@ -6577,72 +6529,66 @@
         <v>1.016190745572224e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.482903277121391</v>
+        <v>4.247408516702868e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.488147163633457</v>
+        <v>2.985000509628463e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.247408516702868e-07</v>
+        <v>-0.0636034897029769</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.985000509628463e-06</v>
+        <v>0.09622037066069797</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0636034897029769</v>
+        <v>0.01329747287953584</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.09622037066069797</v>
+        <v>1.860620317412316</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01329747287953584</v>
+        <v>1.887509951696402</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.84846323833366</v>
+        <v>4.100170280391618</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.887509951696402</v>
+        <v>8.082108390247507e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.100170280391618</v>
+        <v>218999148.2819629</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8.082108390247507e-16</v>
+        <v>5.39865788105979e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>218999148.2819629</v>
+        <v>38.76229854597815</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.39865788105979e-07</v>
+        <v>0.0001603051050597136</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>38.76229854597815</v>
+        <v>8.268601921362006</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001603051050597136</v>
+        <v>1.457381106477071</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.268601921362006</v>
+        <v>0.01096002440255035</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.457381106477071</v>
+        <v>2.927155391794421</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01096002440255035</v>
+        <v>0.9567629855531889</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.927155391794421</v>
+        <v>1.548061087548742</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9567629855531889</v>
+        <v>26</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.548061087548742</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2086533297943714</v>
       </c>
     </row>
@@ -6657,72 +6603,66 @@
         <v>9.370880471221103e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.494678847147263</v>
+        <v>3.949123435470933e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.640476425555764</v>
+        <v>2.978808506974144e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.949123435470933e-07</v>
+        <v>-0.06327946859209407</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.978808506974144e-06</v>
+        <v>0.09976966161127937</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.06327946859209407</v>
+        <v>0.01395337691270057</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.09976966161127937</v>
+        <v>1.862839091603512</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01395337691270057</v>
+        <v>1.898562100388889</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.848422169251648</v>
+        <v>4.198149664871036</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.898562100388889</v>
+        <v>8.765403088807775e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.198149664871036</v>
+        <v>205538026.8741333</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>8.765403088807775e-16</v>
+        <v>5.742625510646105e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>205538026.8741333</v>
+        <v>37.03021713479497</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.742625510646105e-07</v>
+        <v>0.0001767167143141924</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>37.03021713479497</v>
+        <v>8.792130375332491</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001767167143141924</v>
+        <v>1.476058305633796</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.792130375332491</v>
+        <v>0.01366047708256389</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.476058305633796</v>
+        <v>2.843384111700984</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01366047708256389</v>
+        <v>0.9567414922566784</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.843384111700984</v>
+        <v>1.539684905660542</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9567414922566784</v>
+        <v>26</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.539684905660542</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1984520089930932</v>
       </c>
     </row>
@@ -6737,72 +6677,66 @@
         <v>8.61674285529387e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.499979832930935</v>
+        <v>3.717622396561133e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.806448636400543</v>
+        <v>2.973128454377531e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.717622396561133e-07</v>
+        <v>-0.06310338236032757</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.973128454377531e-06</v>
+        <v>0.1068006671746286</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06310338236032757</v>
+        <v>0.01538482785985567</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1068006671746286</v>
+        <v>1.869012564468307</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01538482785985567</v>
+        <v>1.930204642335755</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.84526336849342</v>
+        <v>4.19003326459952</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.930204642335755</v>
+        <v>1.00768387985777e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.19003326459952</v>
+        <v>181823024.9665389</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.00768387985777e-15</v>
+        <v>6.550340296187079e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>181823024.9665389</v>
+        <v>33.31363849787003</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.550340296187079e-07</v>
+        <v>0.0001876724315419596</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>33.31363849787003</v>
+        <v>11.15710694294293</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001876724315419596</v>
+        <v>1.164250451728075</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.15710694294293</v>
+        <v>0.02336165858241751</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.164250451728075</v>
+        <v>2.653177142952542</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.02336165858241751</v>
+        <v>0.9583401312096442</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.653177142952542</v>
+        <v>1.518565700476851</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9583401312096442</v>
+        <v>8</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.518565700476851</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2021169091170404</v>
       </c>
     </row>
@@ -6817,72 +6751,66 @@
         <v>7.867346816963182e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.476443600356271</v>
+        <v>3.525174460337602e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.890033499556285</v>
+        <v>2.967941027888721e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.525174460337602e-07</v>
+        <v>-0.06251757004546751</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.967941027888721e-06</v>
+        <v>0.1180793435620063</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06251757004546751</v>
+        <v>0.01784500248641923</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1180793435620063</v>
+        <v>1.870144524044114</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01784500248641923</v>
+        <v>1.898733429380603</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.842243893952094</v>
+        <v>4.116762042399444</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.898733429380603</v>
+        <v>1.166377320192091e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.116762042399444</v>
+        <v>158899268.5836883</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.166377320192091e-15</v>
+        <v>7.495042240538973e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>158899268.5836883</v>
+        <v>29.44983477986039</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>7.495042240538973e-07</v>
+        <v>0.0001879830679708735</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>29.44983477986039</v>
+        <v>12.75363449667731</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001879830679708735</v>
+        <v>1.027875236652021</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.75363449667731</v>
+        <v>0.03057642217800612</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.027875236652021</v>
+        <v>2.490605674101424</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.03057642217800612</v>
+        <v>0.9581624806067053</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.490605674101424</v>
+        <v>1.531371017303135</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9581624806067053</v>
+        <v>8</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.531371017303135</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2085681970106004</v>
       </c>
     </row>
@@ -6897,72 +6825,66 @@
         <v>7.12692554294641e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.402321355849584</v>
+        <v>3.290015958834512e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.796278592130371</v>
+        <v>2.963341228874513e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.290015958834512e-07</v>
+        <v>-0.05975141525492261</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.963341228874513e-06</v>
+        <v>0.1312056398072199</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05975141525492261</v>
+        <v>0.02077309196100982</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1312056398072199</v>
+        <v>1.850591544606367</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02077309196100982</v>
+        <v>1.850298845982428</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.813159704885019</v>
+        <v>4.073215163035475</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.850298845982428</v>
+        <v>1.191450192795135e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.073215163035475</v>
+        <v>155830488.8280546</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.191450192795135e-15</v>
+        <v>7.612461781013782e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>155830488.8280546</v>
+        <v>28.93215332206629</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.612461781013782e-07</v>
+        <v>0.0001702633552259674</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>28.93215332206629</v>
+        <v>11.14092921062908</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001702633552259674</v>
+        <v>1.133615651869635</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.14092921062908</v>
+        <v>0.02113313935558401</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.133615651869635</v>
+        <v>2.741130561998589</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02113313935558401</v>
+        <v>0.9585264715284162</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.741130561998589</v>
+        <v>1.56455406389245</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9585264715284162</v>
+        <v>11</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.56455406389245</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1983904455993362</v>
       </c>
     </row>
@@ -6977,72 +6899,66 @@
         <v>6.438134250753142e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.273074059208634</v>
+        <v>3.006315158319115e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.519844595973709</v>
+        <v>2.959445620503035e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.006315158319115e-07</v>
+        <v>-0.05490527586820852</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.959445620503035e-06</v>
+        <v>0.1418993222290012</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05490527586820852</v>
+        <v>0.02313403186571061</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1418993222290012</v>
+        <v>1.842756970251105</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02313403186571061</v>
+        <v>1.800128238664851</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.795304367846594</v>
+        <v>3.898934096240444</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.800128238664851</v>
+        <v>1.300345642819032e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.898934096240444</v>
+        <v>140559353.9545834</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.300345642819032e-15</v>
+        <v>8.435524960193771e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>140559353.9545834</v>
+        <v>25.69084042103524</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>8.435524960193771e-07</v>
+        <v>0.000176266238114541</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>25.69084042103524</v>
+        <v>8.8046664692375</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000176266238114541</v>
+        <v>1.528511038434298</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.8046664692375</v>
+        <v>0.013664538039161</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.528511038434298</v>
+        <v>2.858569746620805</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.013664538039161</v>
+        <v>0.959712390698458</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.858569746620805</v>
+        <v>1.614085508984324</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.959712390698458</v>
+        <v>11</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.614085508984324</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1830318177260666</v>
       </c>
     </row>
@@ -7057,72 +6973,66 @@
         <v>5.837231200623023e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.097694652671097</v>
+        <v>2.71518378343999e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.113898620698421</v>
+        <v>2.956256105219688e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.71518378343999e-07</v>
+        <v>-0.0489346837390064</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.956256105219688e-06</v>
+        <v>0.1492665027082307</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0489346837390064</v>
+        <v>0.02465793514268367</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1492665027082307</v>
+        <v>1.835503730581731</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02465793514268367</v>
+        <v>1.744947162032569</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.786658698911737</v>
+        <v>3.881885298150551</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.744947162032569</v>
+        <v>1.311792664661188e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.881885298150551</v>
+        <v>138006272.1627825</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.311792664661188e-15</v>
+        <v>8.587183738260126e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>138006272.1627825</v>
+        <v>24.98405042390142</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.587183738260126e-07</v>
+        <v>0.0001784427783677684</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>24.98405042390142</v>
+        <v>8.525986316576398</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001784427783677684</v>
+        <v>1.527507611916211</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.525986316576398</v>
+        <v>0.01297144143645446</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.527507611916211</v>
+        <v>2.808310919372606</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01297144143645446</v>
+        <v>0.9578453927474839</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.808310919372606</v>
+        <v>1.615159833198379</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9578453927474839</v>
+        <v>11</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.615159833198379</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1834253552463027</v>
       </c>
     </row>
@@ -7137,72 +7047,66 @@
         <v>5.33829441447103e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8896011685026141</v>
+        <v>2.444707926804117e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.6333748088397764</v>
+        <v>2.953716865426414e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.444707926804117e-07</v>
+        <v>-0.04173870965977315</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.953716865426414e-06</v>
+        <v>0.1553659749943154</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04173870965977315</v>
+        <v>0.02586293580267562</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1553659749943154</v>
+        <v>1.822553673000027</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02586293580267562</v>
+        <v>1.832493795149088</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.76970283068871</v>
+        <v>3.937195790358369</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.832493795149088</v>
+        <v>1.275194912296167e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.937195790358369</v>
+        <v>137090615.4436634</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.275194912296167e-15</v>
+        <v>8.551943226595333e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>137090615.4436634</v>
+        <v>23.96580512436385</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.551943226595333e-07</v>
+        <v>0.0001708977864286573</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>23.96580512436385</v>
+        <v>9.785225646611325</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001708977864286573</v>
+        <v>1.206381947720659</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.785225646611325</v>
+        <v>0.01636357258835172</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.206381947720659</v>
+        <v>2.679283513589752</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01636357258835172</v>
+        <v>0.9560640803788051</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.679283513589752</v>
+        <v>1.631034174761812</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9560640803788051</v>
+        <v>18</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.631034174761812</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1959101300936661</v>
       </c>
     </row>
@@ -7217,72 +7121,66 @@
         <v>4.946586928795478e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6648288641071524</v>
+        <v>2.206242021481507e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.1186309342967551</v>
+        <v>2.95180237175757e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.206242021481507e-07</v>
+        <v>-0.0322868449450703</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.95180237175757e-06</v>
+        <v>0.1629914088576904</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0322868449450703</v>
+        <v>0.02758853319399454</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1629914088576904</v>
+        <v>1.811888813548111</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02758853319399454</v>
+        <v>1.854494297105903</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.754572002170887</v>
+        <v>3.731641705664626</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.854494297105903</v>
+        <v>1.419550081912564e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.731641705664626</v>
+        <v>122532733.0597559</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.419550081912564e-15</v>
+        <v>9.564461678217892e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>122532733.0597559</v>
+        <v>21.31350916100803</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.564461678217892e-07</v>
+        <v>0.0001658623931344395</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>21.31350916100803</v>
+        <v>10.70822919318021</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001658623931344395</v>
+        <v>1.076950912201323</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.70822919318021</v>
+        <v>0.0190188057747332</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.076950912201323</v>
+        <v>2.509382927513421</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0190188057747332</v>
+        <v>0.9562759061670558</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.509382927513421</v>
+        <v>1.644542094560361</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9562759061670558</v>
+        <v>18</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.644542094560361</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2091652869640692</v>
       </c>
     </row>
@@ -7297,72 +7195,66 @@
         <v>4.671011048485223e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4526325976534193</v>
+        <v>2.001434386748216e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.3808038070537028</v>
+        <v>2.950524156663322e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.001434386748216e-07</v>
+        <v>-0.02073304048716716</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.950524156663322e-06</v>
+        <v>0.1720083923765012</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02073304048716716</v>
+        <v>0.02999797468710602</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1720083923765012</v>
+        <v>1.790117715107462</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02999797468710602</v>
+        <v>1.854529536408028</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.724632807936251</v>
+        <v>3.686977984977513</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.854529536408028</v>
+        <v>1.454151001171295e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.686977984977513</v>
+        <v>120672119.7226251</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.454151001171295e-15</v>
+        <v>9.670630611358242e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>120672119.7226251</v>
+        <v>21.17499857841154</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.670630611358242e-07</v>
+        <v>0.000158159249923454</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>21.17499857841154</v>
+        <v>9.838211573367605</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000158159249923454</v>
+        <v>1.100470874445963</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.838211573367605</v>
+        <v>0.01530829816495023</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.100470874445963</v>
+        <v>2.623508128130361</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01530829816495023</v>
+        <v>0.9551878649210926</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.623508128130361</v>
+        <v>1.653295040788147</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9551878649210926</v>
+        <v>18</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.653295040788147</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2085684744028328</v>
       </c>
     </row>
@@ -7377,72 +7269,66 @@
         <v>4.514297078676789e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3034956626636846</v>
+        <v>1.825779619457484e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.7454908306706982</v>
+        <v>2.949826669536698e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.825779619457484e-07</v>
+        <v>-0.01006068667427425</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.949826669536698e-06</v>
+        <v>0.1760244503413214</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.01006068667427425</v>
+        <v>0.03107444359225366</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1760244503413214</v>
+        <v>1.793471283231054</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03107444359225366</v>
+        <v>1.676985574087467</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.73359291954722</v>
+        <v>3.836131210577769</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.676985574087467</v>
+        <v>1.636701912843237e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.836131210577769</v>
+        <v>111998026.9617228</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.636701912843237e-15</v>
+        <v>1.041660327804986e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>111998026.9617228</v>
+        <v>20.53006544336002</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.041660327804986e-06</v>
+        <v>0.0001487156980718812</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>20.53006544336002</v>
+        <v>7.830277249471293</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001487156980718812</v>
+        <v>1.402802676752969</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.830277249471293</v>
+        <v>0.009118241555870597</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.402802676752969</v>
+        <v>2.848496552783517</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.009118241555870597</v>
+        <v>0.9541643009925909</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.848496552783517</v>
+        <v>1.667987280837616</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9541643009925909</v>
+        <v>18</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.667987280837616</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2215497471130959</v>
       </c>
     </row>
@@ -7457,72 +7343,66 @@
         <v>4.454681677302908e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.2424079054572208</v>
+        <v>1.6731677693746e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.8932653828933259</v>
+        <v>2.949561502809628e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.6731677693746e-07</v>
+        <v>-0.002276312318813484</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.949561502809628e-06</v>
+        <v>0.1740087988199064</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.002276312318813484</v>
+        <v>0.03027733113088035</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1740087988199064</v>
+        <v>1.79433096545847</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03027733113088035</v>
+        <v>1.738830056426414</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.731162953269294</v>
+        <v>3.818105215969019</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.738830056426414</v>
+        <v>1.652192750953589e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.818105215969019</v>
+        <v>112468524.235791</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.652192750953589e-15</v>
+        <v>1.041004016165401e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>112468524.235791</v>
+        <v>20.89886523449513</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.041004016165401e-06</v>
+        <v>0.0001439618347493439</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>20.89886523449513</v>
+        <v>7.663240216659199</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001439618347493439</v>
+        <v>1.710444727297338</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.663240216659199</v>
+        <v>0.008454194825114416</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.710444727297338</v>
+        <v>2.936447281722795</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.008454194825114416</v>
+        <v>0.9565577244056254</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.936447281722795</v>
+        <v>1.670278870360503</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9565577244056254</v>
+        <v>18</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.670278870360503</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2387059448899136</v>
       </c>
     </row>
@@ -7537,72 +7417,66 @@
         <v>4.460271884991374e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.2472489249698105</v>
+        <v>1.627520770952909e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.8839305024209425</v>
+        <v>2.949589846444247e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.627520770952909e-07</v>
+        <v>0.003240803536821293</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.949589846444247e-06</v>
+        <v>0.1695242790487839</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.003240803536821293</v>
+        <v>0.02874382488669094</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1695242790487839</v>
+        <v>1.793962776386399</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02874382488669094</v>
+        <v>1.914008092219733</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.734198994469017</v>
+        <v>3.832943740572243</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.914008092219733</v>
+        <v>1.639425202203719e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.832943740572243</v>
+        <v>114970857.6996499</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.639425202203719e-15</v>
+        <v>1.020626963617434e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>114970857.6996499</v>
+        <v>21.67041106848668</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.020626963617434e-06</v>
+        <v>0.000145464773205389</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>21.67041106848668</v>
+        <v>8.407759433764561</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.000145464773205389</v>
+        <v>1.38257576262901</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.407759433764561</v>
+        <v>0.01028296572341591</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.38257576262901</v>
+        <v>2.775899123003027</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01028296572341591</v>
+        <v>0.9578823823783518</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.775899123003027</v>
+        <v>1.666409941646556</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9578823823783518</v>
+        <v>18</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.666409941646556</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2327278556606443</v>
       </c>
     </row>
@@ -7617,72 +7491,66 @@
         <v>4.507365074994218e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.2847684462759784</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.8169402387711879</v>
+        <v>2.949830938321523e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.007182038966786975</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.949830938321523e-06</v>
+        <v>0.1640222639638756</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.007182038966786975</v>
+        <v>0.02694994030029475</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1640222639638756</v>
+        <v>1.796978992611428</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02694994030029475</v>
+        <v>1.834029128994334</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.739660711280869</v>
+        <v>3.721279935100342</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.834029128994334</v>
+        <v>1.739289255381006e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.721279935100342</v>
+        <v>110653566.4837401</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.739289255381006e-15</v>
+        <v>1.062628037695573e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>110653566.4837401</v>
+        <v>21.29622598186109</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.062628037695573e-06</v>
+        <v>0.0001501284392233731</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>21.29622598186109</v>
+        <v>8.951452673568928</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001501284392233731</v>
+        <v>1.319621246653128</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.951452673568928</v>
+        <v>0.01202956738801967</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.319621246653128</v>
+        <v>2.628950480060988</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01202956738801967</v>
+        <v>0.9578044149861493</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.628950480060988</v>
+        <v>1.656019756454677</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9578044149861493</v>
+        <v>13</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.656019756454677</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2174502439697818</v>
       </c>
     </row>
@@ -7697,72 +7565,66 @@
         <v>4.57442012846252e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.324915574119842</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.7693717831941074</v>
+        <v>2.950212205010085e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.009252423691174228</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.950212205010085e-06</v>
+        <v>0.1589721511218549</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.009252423691174228</v>
+        <v>0.02535203913900583</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1589721511218549</v>
+        <v>1.793283116167877</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02535203913900583</v>
+        <v>1.790779111576131</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.737110020875342</v>
+        <v>3.637145488302846</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.790779111576131</v>
+        <v>1.820686406196503e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.637145488302846</v>
+        <v>105847223.4842953</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.820686406196503e-15</v>
+        <v>1.107436089539609e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>105847223.4842953</v>
+        <v>20.39830543348325</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.107436089539609e-06</v>
+        <v>0.0001488409122387637</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>20.39830543348325</v>
+        <v>8.87960912171291</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001488409122387637</v>
+        <v>1.307532854340009</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.87960912171291</v>
+        <v>0.0117357275994097</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.307532854340009</v>
+        <v>2.636207143348859</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0117357275994097</v>
+        <v>0.9570956578481604</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.636207143348859</v>
+        <v>1.655457875701113</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9570956578481604</v>
+        <v>13</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.655457875701113</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2149172693834561</v>
       </c>
     </row>
@@ -7777,72 +7639,66 @@
         <v>4.642590394028009e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3497828464510799</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.7701775434960942</v>
+        <v>2.950658942251661e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.009916032846181096</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.950658942251661e-06</v>
+        <v>0.1555253651828319</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.009916032846181096</v>
+        <v>0.0242808223900128</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1555253651828319</v>
+        <v>1.79791867198451</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0242808223900128</v>
+        <v>1.760291375219588</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.737291804544992</v>
+        <v>3.679378865924476</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.760291375219588</v>
+        <v>1.779129159266312e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.679378865924476</v>
+        <v>107619405.5296121</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.779129159266312e-15</v>
+        <v>1.091485062273269e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>107619405.5296121</v>
+        <v>20.60576085282121</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.091485062273269e-06</v>
+        <v>0.0001437420359731141</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>20.60576085282121</v>
+        <v>8.462436679098513</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001437420359731141</v>
+        <v>1.349236701590953</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.462436679098513</v>
+        <v>0.01029377463969962</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.349236701590953</v>
+        <v>2.7190329606649</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01029377463969962</v>
+        <v>0.9561660574598403</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.7190329606649</v>
+        <v>1.659945880412434</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9561660574598403</v>
+        <v>13</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.659945880412434</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2352987842775228</v>
       </c>
     </row>
@@ -7857,72 +7713,66 @@
         <v>4.703038351048625e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3574047438071271</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.8066874401024382</v>
+        <v>2.95112660731149e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.009999193280320689</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.95112660731149e-06</v>
+        <v>0.1532394445284086</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.009999193280320689</v>
+        <v>0.02357788772879317</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1532394445284086</v>
+        <v>1.799937345561459</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02357788772879317</v>
+        <v>1.718782208122682</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.739617497160326</v>
+        <v>3.796903915866416</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.718782208122682</v>
+        <v>1.670695421679869e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.796903915866416</v>
+        <v>112936576.0189564</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.670695421679869e-15</v>
+        <v>1.041962505667681e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>112936576.0189564</v>
+        <v>21.30916911299749</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.041962505667681e-06</v>
+        <v>0.0001321157819893985</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>21.30916911299749</v>
+        <v>7.504256967072723</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001321157819893985</v>
+        <v>1.706670810806626</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.504256967072723</v>
+        <v>0.007439951319081045</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.706670810806626</v>
+        <v>3.013665791986927</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.007439951319081045</v>
+        <v>0.9572571515014771</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.013665791986927</v>
+        <v>1.666448568067391</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9572571515014771</v>
+        <v>18</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.666448568067391</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2560569874184481</v>
       </c>
     </row>
@@ -7937,72 +7787,66 @@
         <v>4.754567169284576e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3523409550968131</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.8594668235654401</v>
+        <v>2.951600946882168e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.01003577203254021</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.951600946882168e-06</v>
+        <v>0.151414072239041</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.01003577203254021</v>
+        <v>0.02302422535093733</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.151414072239041</v>
+        <v>1.798134983931556</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02302422535093733</v>
+        <v>1.6668949483609</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.741436516581831</v>
+        <v>4.015623381685509</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.6668949483609</v>
+        <v>1.493655863053601e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.015623381685509</v>
+        <v>124591914.9338786</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.493655863053601e-15</v>
+        <v>9.38707528194912e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>124591914.9338786</v>
+        <v>23.18623694092425</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>9.38707528194912e-07</v>
+        <v>0.0001279027377073144</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>23.18623694092425</v>
+        <v>7.081134947960283</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001279027377073144</v>
+        <v>1.697902893748828</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.081134947960283</v>
+        <v>0.006413359463554381</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.697902893748828</v>
+        <v>3.061811443764664</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.006413359463554381</v>
+        <v>0.9566867279082123</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.061811443764664</v>
+        <v>1.673211298412648</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9566867279082123</v>
+        <v>18</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.673211298412648</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2523868961157301</v>
       </c>
     </row>
@@ -8017,72 +7861,66 @@
         <v>4.799333973430669e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.339156574783835</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.9170489864341813</v>
+        <v>2.952086149786419e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.01028918316202708</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.952086149786419e-06</v>
+        <v>0.149703293814218</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.01028918316202708</v>
+        <v>0.02251562741173237</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.149703293814218</v>
+        <v>1.794175581148634</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.02251562741173237</v>
+        <v>1.691917582722684</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.739512378534369</v>
+        <v>4.184905894326292</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.691917582722684</v>
+        <v>1.260468950266602e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.184905894326292</v>
+        <v>145475862.8869074</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.260468950266602e-15</v>
+        <v>8.034872484533314e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>145475862.8869074</v>
+        <v>26.67559012098475</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>8.034872484533314e-07</v>
+        <v>0.0001338522304552825</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>26.67559012098475</v>
+        <v>8.125853979334149</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001338522304552825</v>
+        <v>1.221795034664509</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.125853979334149</v>
+        <v>0.008838196238143239</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.221795034664509</v>
+        <v>2.837279164033219</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.008838196238143239</v>
+        <v>0.9569344293209884</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.837279164033219</v>
+        <v>1.672958513769149</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9569344293209884</v>
+        <v>18</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.672958513769149</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2345011094091671</v>
       </c>
     </row>
@@ -8097,72 +7935,66 @@
         <v>4.840404490374269e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3206976612385394</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.9753935633260444</v>
+        <v>2.952596142819706e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.01093805937132045</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.952596142819706e-06</v>
+        <v>0.1480117831111497</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.01093805937132045</v>
+        <v>0.02202664628677962</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1480117831111497</v>
+        <v>1.816183307606106</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02202664628677962</v>
+        <v>1.934752335215298</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.772655564541307</v>
+        <v>4.135191166063656</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.934752335215298</v>
+        <v>1.290958740173667e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.135191166063656</v>
+        <v>142273223.5842265</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.290958740173667e-15</v>
+        <v>8.257125474125739e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>142273223.5842265</v>
+        <v>26.13116099462502</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>8.257125474125739e-07</v>
+        <v>0.0001391891545671235</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>26.13116099462502</v>
+        <v>8.799469154863155</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001391891545671235</v>
+        <v>1.174320870305165</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.799469154863155</v>
+        <v>0.01077750774211092</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.174320870305165</v>
+        <v>2.698531415003278</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01077750774211092</v>
+        <v>0.9566262948336374</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.698531415003278</v>
+        <v>1.635470531928392</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9566262948336374</v>
+        <v>15</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.635470531928392</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2284021271071379</v>
       </c>
     </row>
@@ -8177,72 +8009,66 @@
         <v>4.881376633116475e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.2984091559494546</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.034661239900806</v>
+        <v>2.953153875188529e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.01200403473908119</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.953153875188529e-06</v>
+        <v>0.1464303608493366</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.01200403473908119</v>
+        <v>0.02158580174564111</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1464303608493366</v>
+        <v>1.812033317600567</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02158580174564111</v>
+        <v>1.803454860754601</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.769839528629235</v>
+        <v>4.094252071202337</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.803454860754601</v>
+        <v>1.316904828837788e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.094252071202337</v>
+        <v>143355897.3086276</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.316904828837788e-15</v>
+        <v>8.180363581458543e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>143355897.3086276</v>
+        <v>27.06359695279145</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>8.180363581458543e-07</v>
+        <v>0.0001352580192327038</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>27.06359695279145</v>
+        <v>8.93131614779842</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001352580192327038</v>
+        <v>1.123905999627778</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.93131614779842</v>
+        <v>0.01078931688127005</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.123905999627778</v>
+        <v>2.79061478325656</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01078931688127005</v>
+        <v>0.9561553762556279</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.79061478325656</v>
+        <v>1.635760295847534</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9561553762556279</v>
+        <v>16</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.635760295847534</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2323469353163567</v>
       </c>
     </row>
@@ -8257,72 +8083,66 @@
         <v>4.922910142824674e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2737672216762911</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.093407803965488</v>
+        <v>2.953752806080126e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.01212160385592774</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.953752806080126e-06</v>
+        <v>0.1451610305682476</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.01212160385592774</v>
+        <v>0.02121843347927089</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1451610305682476</v>
+        <v>1.802984821276094</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02121843347927089</v>
+        <v>1.940746393014471</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.75674426340246</v>
+        <v>4.053082818338016</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.940746393014471</v>
+        <v>1.343793663937638e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.053082818338016</v>
+        <v>139691249.5367711</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.343793663937638e-15</v>
+        <v>8.386272865426359e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>139691249.5367711</v>
+        <v>26.22231277624984</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>8.386272865426359e-07</v>
+        <v>0.0001492508648387734</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>26.22231277624984</v>
+        <v>9.142763304775945</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001492508648387734</v>
+        <v>1.536095012838357</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.142763304775945</v>
+        <v>0.01247589782841585</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.536095012838357</v>
+        <v>3.011606970512736</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01247589782841585</v>
+        <v>0.957763047247617</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.011606970512736</v>
+        <v>1.656704145779045</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.957763047247617</v>
+        <v>16</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.656704145779045</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2328194451860118</v>
       </c>
     </row>
@@ -8337,72 +8157,66 @@
         <v>4.958837253064024e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2491572384462566</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.144755206485712</v>
+        <v>2.954316037030047e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.01037012574045866</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.954316037030047e-06</v>
+        <v>0.1449155746614919</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.01037012574045866</v>
+        <v>0.02110667600685131</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1449155746614919</v>
+        <v>1.808414757965788</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02110667600685131</v>
+        <v>1.725337739068684</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.767116839385408</v>
+        <v>4.012215616729645</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.725337739068684</v>
+        <v>1.371308023176483e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.012215616729645</v>
+        <v>136248240.2111875</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.371308023176483e-15</v>
+        <v>8.63337766834251e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>136248240.2111875</v>
+        <v>25.45639025283534</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.63337766834251e-07</v>
+        <v>0.0002114203968163395</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>25.45639025283534</v>
+        <v>9.924795113509216</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002114203968163395</v>
+        <v>1.760675003286495</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.924795113509216</v>
+        <v>0.02082523848893044</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.760675003286495</v>
+        <v>2.91639348929342</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02082523848893044</v>
+        <v>0.9581725151060144</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.91639348929342</v>
+        <v>1.63677078781748</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9581725151060144</v>
+        <v>9</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.63677078781748</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2295404357652745</v>
       </c>
     </row>
@@ -8417,72 +8231,66 @@
         <v>4.983372004994751e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.2278983610113344</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.181907034299513</v>
+        <v>2.954757714903468e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.007179421059952589</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.954757714903468e-06</v>
+        <v>0.1461242149618482</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.007179421059952589</v>
+        <v>0.02140134952239663</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1461242149618482</v>
+        <v>1.823822846011504</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02140134952239663</v>
+        <v>1.718244354689719</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.784825573265926</v>
+        <v>3.942484829285601</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.718244354689719</v>
+        <v>1.094275472942811e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.942484829285601</v>
+        <v>174236778.7073185</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.094275472942811e-15</v>
+        <v>6.78477007691401e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>174236778.7073185</v>
+        <v>33.22051276236061</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.78477007691401e-07</v>
+        <v>0.0001735684440265373</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>33.22051276236061</v>
+        <v>10.26321850048874</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001735684440265373</v>
+        <v>1.428333832110983</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.26321850048874</v>
+        <v>0.01828259842646122</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.428333832110983</v>
+        <v>2.958460128220573</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01828259842646122</v>
+        <v>0.9583755402570244</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.958460128220573</v>
+        <v>1.631214449378169</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9583755402570244</v>
+        <v>9</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.631214449378169</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2446760544174016</v>
       </c>
     </row>
@@ -8497,72 +8305,66 @@
         <v>4.995456018205485e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.2144224118182282</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.2015552983573</v>
+        <v>2.955014936108239e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>0.002945924064553452</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.955014936108239e-06</v>
+        <v>0.1480000514590947</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.002945924064553452</v>
+        <v>0.02190959792302557</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1480000514590947</v>
+        <v>1.855009296204827</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.02190959792302557</v>
+        <v>1.916562884522744</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.836821652793266</v>
+        <v>3.895005027087236</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.916562884522744</v>
+        <v>1.045890959566142e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.895005027087236</v>
+        <v>180728100.7276883</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.045890959566142e-15</v>
+        <v>6.571103103984165e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>180728100.7276883</v>
+        <v>34.16156657756517</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.571103103984165e-07</v>
+        <v>0.0001569511583592645</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>34.16156657756517</v>
+        <v>10.79887985776545</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001569511583592645</v>
+        <v>1.091462051218099</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>10.79887985776545</v>
+        <v>0.01830298586333538</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.091462051218099</v>
+        <v>2.716958664488215</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01830298586333538</v>
+        <v>0.9585609267424338</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.716958664488215</v>
+        <v>1.558375790586082</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9585609267424338</v>
+        <v>23</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.558375790586082</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2435990153239685</v>
       </c>
     </row>
@@ -8577,72 +8379,66 @@
         <v>4.996329789543099e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.2133743889639255</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.203006610679726</v>
+        <v>2.955034688734608e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.002349939182618561</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.955034688734608e-06</v>
+        <v>0.149326970143208</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.002349939182618561</v>
+        <v>0.0223000824711982</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.149326970143208</v>
+        <v>1.8696630404174</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.0223000824711982</v>
+        <v>1.740659080788298</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.849909577030855</v>
+        <v>4.083764509242554</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.740659080788298</v>
+        <v>8.56276282181741e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.083764509242554</v>
+        <v>211384197.4595472</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>8.56276282181741e-16</v>
+        <v>5.642776921674283e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>211384197.4595472</v>
+        <v>38.26123196267967</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.642776921674283e-07</v>
+        <v>0.0001649416820389581</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>38.26123196267967</v>
+        <v>10.74764795417579</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001649416820389581</v>
+        <v>1.110224271157061</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>10.74764795417579</v>
+        <v>0.01905273310962293</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.110224271157061</v>
+        <v>2.587568990454617</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01905273310962293</v>
+        <v>0.9587034199255404</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.587568990454617</v>
+        <v>1.544986032788942</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9587034199255404</v>
+        <v>23</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.544986032788942</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.228037519344617</v>
       </c>
     </row>
@@ -8657,72 +8453,66 @@
         <v>4.986332752564426e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.2278678134172588</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.185363169179553</v>
+        <v>2.954774579153629e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.00791976687204371</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.954774579153629e-06</v>
+        <v>0.1499610842440086</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.00791976687204371</v>
+        <v>0.02254821667858019</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1499610842440086</v>
+        <v>1.879434360096055</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02254821667858019</v>
+        <v>1.900453237114258</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.866882132861497</v>
+        <v>3.50347511608994</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.900453237114258</v>
+        <v>6.750568532973134e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.50347511608994</v>
+        <v>263800362.72768</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>6.750568532973134e-16</v>
+        <v>4.532361649501092e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>263800362.72768</v>
+        <v>46.97763263515329</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.532361649501092e-07</v>
+        <v>0.0001685118508106567</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>46.97763263515329</v>
+        <v>9.808788809824103</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001685118508106567</v>
+        <v>1.204402082947504</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.808788809824103</v>
+        <v>0.01621291913300007</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.204402082947504</v>
+        <v>2.728884376241532</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01621291913300007</v>
+        <v>0.9578584522005099</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.728884376241532</v>
+        <v>1.51640826898278</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9578584522005099</v>
+        <v>23</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.51640826898278</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2175470073117306</v>
       </c>
     </row>
@@ -8737,72 +8527,66 @@
         <v>4.968221068518909e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.2554988285384162</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.152341443601119</v>
+        <v>2.95427878653035e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.0115879531583839</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.95427878653035e-06</v>
+        <v>0.1513552393312274</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.0115879531583839</v>
+        <v>0.02304138151316779</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1513552393312274</v>
+        <v>1.882118211294094</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02304138151316779</v>
+        <v>1.97180825071119</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.874740620165906</v>
+        <v>3.519756747005003</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.97180825071119</v>
+        <v>6.688259650465424e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.519756747005003</v>
+        <v>256479524.9467821</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>6.688259650465424e-16</v>
+        <v>4.626284810328996e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>256479524.9467821</v>
+        <v>43.99654023039594</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.626284810328996e-07</v>
+        <v>0.0001935711319193031</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>43.99654023039594</v>
+        <v>9.073922771047325</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001935711319193031</v>
+        <v>1.508629379497</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.073922771047325</v>
+        <v>0.01593788713003304</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.508629379497</v>
+        <v>2.760546882308483</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01593788713003304</v>
+        <v>0.9567538416364375</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.760546882308483</v>
+        <v>1.539477565364004</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9567538416364375</v>
+        <v>23</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.539477565364004</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2066504063196049</v>
       </c>
     </row>
@@ -8817,72 +8601,66 @@
         <v>4.949335539893675e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2905168027458668</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.113933114259245</v>
+        <v>2.95366535164596e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.0128201761524631</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.95366535164596e-06</v>
+        <v>0.1525084764794921</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.0128201761524631</v>
+        <v>0.02342182527859716</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1525084764794921</v>
+        <v>1.885902682600168</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02342182527859716</v>
+        <v>1.865384466002422</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.879671744217539</v>
+        <v>3.674052712645793</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.865384466002422</v>
+        <v>6.138293626473125e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.674052712645793</v>
+        <v>278651073.3710406</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>6.138293626473125e-16</v>
+        <v>4.268061711542987e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>278651073.3710406</v>
+        <v>47.66165292449917</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>4.268061711542987e-07</v>
+        <v>0.0001884323233633721</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>47.66165292449917</v>
+        <v>9.57094434649602</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001884323233633721</v>
+        <v>1.388187210984351</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>9.57094434649602</v>
+        <v>0.01726096153508261</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.388187210984351</v>
+        <v>2.768638234879969</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01726096153508261</v>
+        <v>0.9570433450822791</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.768638234879969</v>
+        <v>1.51360740779841</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9570433450822791</v>
+        <v>23</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.51360740779841</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.2196324607022116</v>
       </c>
     </row>
@@ -8897,72 +8675,66 @@
         <v>4.935369678989103e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.3275271245529928</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.078919955107744</v>
+        <v>2.953037409495617e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.012413515462219</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.953037409495617e-06</v>
+        <v>0.152675518625737</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.012413515462219</v>
+        <v>0.02346246245165869</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.152675518625737</v>
+        <v>1.891790819649394</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.02346246245165869</v>
+        <v>1.982180141433138</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.886130359473469</v>
+        <v>4.004735741920731</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.982180141433138</v>
+        <v>5.166431759275583e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.004735741920731</v>
+        <v>331209889.4394166</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>5.166431759275583e-16</v>
+        <v>3.597824220614209e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>331209889.4394166</v>
+        <v>56.67575167841093</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>3.597824220614209e-07</v>
+        <v>0.0001635112546824734</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>56.67575167841093</v>
+        <v>10.7728516888231</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001635112546824734</v>
+        <v>1.119999802702641</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.7728516888231</v>
+        <v>0.01897618968345673</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.119999802702641</v>
+        <v>2.68822520681306</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01897618968345673</v>
+        <v>0.9580700443711816</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.68822520681306</v>
+        <v>1.496402393376782</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9580700443711816</v>
+        <v>23</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.496402393376782</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.2502201439505033</v>
       </c>
     </row>
@@ -8977,72 +8749,66 @@
         <v>4.92753145496385e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.3624319770453663</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.051259652818671</v>
+        <v>2.952455960653261e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.01108626136204862</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.952455960653261e-06</v>
+        <v>0.152174733262084</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.01108626136204862</v>
+        <v>0.02327862797096919</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.152174733262084</v>
+        <v>1.892201323165138</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.02327862797096919</v>
+        <v>2.155005465561865</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.89649547768276</v>
+        <v>4.090773551581088</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.155005465561865</v>
+        <v>4.951394686305849e-16</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.090773551581088</v>
+        <v>363904494.7508336</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>4.951394686305849e-16</v>
+        <v>3.279287282432148e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>363904494.7508336</v>
+        <v>65.56957758343053</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>3.279287282432148e-07</v>
+        <v>0.0001550161307630691</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>65.56957758343053</v>
+        <v>10.13911658242049</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001550161307630691</v>
+        <v>1.128192526222615</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>10.13911658242049</v>
+        <v>0.01593591945577169</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.128192526222615</v>
+        <v>2.722243014362699</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01593591945577169</v>
+        <v>0.9594436667704472</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.722243014362699</v>
+        <v>1.480552791191596</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9594436667704472</v>
+        <v>29</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.480552791191596</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2518105703761045</v>
       </c>
     </row>
@@ -9057,72 +8823,66 @@
         <v>4.924923460921552e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.3926893863815613</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.031854811463968</v>
+        <v>2.951951906153099e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.009372368061063552</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.951951906153099e-06</v>
+        <v>0.1512926847922451</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.009372368061063552</v>
+        <v>0.02297570684311527</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1512926847922451</v>
+        <v>1.892698451849931</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.02297570684311527</v>
+        <v>1.982918207084533</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.896385875485834</v>
+        <v>4.091121017616627</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.982918207084533</v>
+        <v>4.950553660868281e-16</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.091121017616627</v>
+        <v>361816145.5153301</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>4.950553660868281e-16</v>
+        <v>3.300448685703306e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>361816145.5153301</v>
+        <v>64.80815498754561</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>3.300448685703306e-07</v>
+        <v>0.0001557146373362808</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>64.80815498754561</v>
+        <v>8.72270640866428</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001557146373362808</v>
+        <v>1.282482023050102</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>8.72270640866428</v>
+        <v>0.01184764271480305</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.282482023050102</v>
+        <v>2.868872982167287</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01184764271480305</v>
+        <v>0.9583329437323418</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.868872982167287</v>
+        <v>1.476602397239748</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9583329437323418</v>
+        <v>37</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.476602397239748</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2502011816210682</v>
       </c>
     </row>
@@ -9137,72 +8897,66 @@
         <v>4.926431163134794e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.4171424990110968</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.020460997276307</v>
+        <v>2.951535008521472e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.007567351655020663</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.951535008521472e-06</v>
+        <v>0.1501620141067493</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.007567351655020663</v>
+        <v>0.02260426739731231</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1501620141067493</v>
+        <v>1.894275605624187</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.02260426739731231</v>
+        <v>1.895886333229318</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.895586246155009</v>
+        <v>4.164169802588793</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.895886333229318</v>
+        <v>4.778389684215765e-16</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.164169802588793</v>
+        <v>376197383.6486551</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>4.778389684215765e-16</v>
+        <v>3.174756801214495e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>376197383.6486551</v>
+        <v>67.62590745081121</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>3.174756801214495e-07</v>
+        <v>0.0001681421602004667</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>67.62590745081121</v>
+        <v>8.336337871653024</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001681421602004667</v>
+        <v>1.457607399014115</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>8.336337871653024</v>
+        <v>0.01168496024672955</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.457607399014115</v>
+        <v>2.874137748128074</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01168496024672955</v>
+        <v>0.9589129114992201</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.874137748128074</v>
+        <v>1.459276389396609</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9589129114992201</v>
+        <v>60</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.459276389396609</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2741886541054435</v>
       </c>
     </row>
@@ -9217,72 +8971,66 @@
         <v>4.930500160118925e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.4354214413992757</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.015495098521534</v>
+        <v>2.951208297133994e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.005704669969415799</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.951208297133994e-06</v>
+        <v>0.1489978577636688</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.005704669969415799</v>
+        <v>0.02223164222564027</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1489978577636688</v>
+        <v>1.896165370185972</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.02223164222564027</v>
+        <v>1.92248612497173</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.899539715709167</v>
+        <v>4.303109641401173</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.92248612497173</v>
+        <v>4.474799710829656e-16</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.303109641401173</v>
+        <v>409898090.405447</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>4.474799710829656e-16</v>
+        <v>2.917539038991338e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>409898090.405447</v>
+        <v>75.18399373439166</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>2.917539038991338e-07</v>
+        <v>0.0001797003318586559</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>75.18399373439166</v>
+        <v>9.561646187156361</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001797003318586559</v>
+        <v>1.298221344554162</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.561646187156361</v>
+        <v>0.01642911682236605</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.298221344554162</v>
+        <v>2.779226071681408</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01642911682236605</v>
+        <v>0.9582052055425498</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.779226071681408</v>
+        <v>1.479484474881625</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9582052055425498</v>
+        <v>60</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.479484474881625</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.3500440764102097</v>
       </c>
     </row>
@@ -9297,72 +9045,66 @@
         <v>4.935122390855139e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.447733162755906</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.014340634258367</v>
+        <v>2.950975031692888e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.003747156052694243</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.950975031692888e-06</v>
+        <v>0.1480568125074455</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.003747156052694243</v>
+        <v>0.02193406971689456</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1480568125074455</v>
+        <v>1.899972470638543</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.02193406971689456</v>
+        <v>1.884420955836129</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.900445209931263</v>
+        <v>4.484569107722773</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.884420955836129</v>
+        <v>4.119997791267194e-16</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.484569107722773</v>
+        <v>445651519.9936358</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>4.119997791267194e-16</v>
+        <v>2.686385763133374e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>445651519.9936358</v>
+        <v>81.82533036972769</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>2.686385763133374e-07</v>
+        <v>0.0001890885717578646</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>81.82533036972769</v>
+        <v>12.24157319810789</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001890885717578646</v>
+        <v>1.034251054901946</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>12.24157319810789</v>
+        <v>0.02833607863439174</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.034251054901946</v>
+        <v>2.553653420368359</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.02833607863439174</v>
+        <v>0.9583586860405994</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.553653420368359</v>
+        <v>1.475873156396617</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9583586860405994</v>
+        <v>60</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.475873156396617</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.504357232414443</v>
       </c>
     </row>
@@ -9377,72 +9119,66 @@
         <v>4.938350336582653e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.4543908654532446</v>
+        <v>1.627626477508876e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.014522864128745</v>
+        <v>2.950842949163379e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.627626477508876e-07</v>
+        <v>-0.001566768961791926</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.950842949163379e-06</v>
+        <v>0.1474491823007015</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.001566768961791926</v>
+        <v>0.02174294062834027</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1474491823007015</v>
+        <v>1.910204730833425</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.02174294062834027</v>
+        <v>2.307175080100732</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.914498870610873</v>
+        <v>3.88981362328612</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.307175080100732</v>
+        <v>3.905392722759827e-16</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.88981362328612</v>
+        <v>455269277.6353285</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>3.905392722759827e-16</v>
+        <v>2.637869506475833e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>455269277.6353285</v>
+        <v>80.94711993859637</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>2.637869506475833e-07</v>
+        <v>0.0001885513644218209</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>80.94711993859637</v>
+        <v>12.04120192700616</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001885513644218209</v>
+        <v>1.087700996534058</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>12.04120192700616</v>
+        <v>0.02733816487060178</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.087700996534058</v>
+        <v>2.756623022858929</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.02733816487060178</v>
+        <v>0.9591296708758241</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.756623022858929</v>
+        <v>1.377878480138347</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9591296708758241</v>
+        <v>64</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.377878480138347</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.6102616919630857</v>
       </c>
     </row>
@@ -9819,7 +9555,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.380753046403129</v>
+        <v>1.379933233731631</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.489742932075443</v>
@@ -9908,7 +9644,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.380139574501426</v>
+        <v>1.374285466400936</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.215569726131096</v>
@@ -9997,7 +9733,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.413756247833943</v>
+        <v>1.406826301504226</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.255397271160164</v>
@@ -10086,7 +9822,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.457140207694664</v>
+        <v>1.446802147588088</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.548975950281531</v>
@@ -10175,7 +9911,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.475754626298317</v>
+        <v>1.46135623278389</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.218261075736849</v>
@@ -10264,7 +10000,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477410097900657</v>
+        <v>1.469008487414706</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.414400338538418</v>
@@ -10353,7 +10089,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.506612891415029</v>
+        <v>1.496204805655567</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.47804407011151</v>
@@ -10442,7 +10178,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.498261667098902</v>
+        <v>1.490712790829904</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.579319215311444</v>
@@ -10531,7 +10267,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.50478737524649</v>
+        <v>1.503055707049722</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.270851305650857</v>
@@ -10620,7 +10356,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.488512904395549</v>
+        <v>1.493335019375183</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.432896487666821</v>
@@ -10709,7 +10445,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.46250934014354</v>
+        <v>1.462684117652479</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.448563180779644</v>
@@ -10798,7 +10534,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.455551624756646</v>
+        <v>1.454265679698202</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.357203899351481</v>
@@ -10887,7 +10623,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.459843754221168</v>
+        <v>1.454029112474682</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.193547920759588</v>
@@ -10976,7 +10712,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.461953277080712</v>
+        <v>1.455339374892996</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.388801390273157</v>
@@ -11065,7 +10801,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.473468233294511</v>
+        <v>1.45991897070645</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.525950994684514</v>
@@ -11154,7 +10890,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.456147140843706</v>
+        <v>1.440634504215029</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.110061337109155</v>
@@ -11243,7 +10979,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.4575131085949</v>
+        <v>1.44473012780416</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.300641653354576</v>
@@ -11332,7 +11068,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.421707725988269</v>
+        <v>1.417120385847537</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.298194841418119</v>
@@ -11421,7 +11157,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.412872987272614</v>
+        <v>1.412191534955039</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.292421352201338</v>
@@ -11510,7 +11246,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.388149160808107</v>
+        <v>1.388085485192841</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.363151005829861</v>
@@ -11599,7 +11335,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.390149500539398</v>
+        <v>1.388494217108065</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.304650204348718</v>
@@ -11688,7 +11424,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.397370099877936</v>
+        <v>1.392372552206568</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.226057445184584</v>
@@ -11777,7 +11513,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.404472147916379</v>
+        <v>1.398982220081384</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.328965019655358</v>
@@ -11866,7 +11602,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.408126306535123</v>
+        <v>1.397203711850073</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.34582199263725</v>
@@ -11955,7 +11691,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.430964897234362</v>
+        <v>1.420670729631121</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.139637225561474</v>
@@ -12044,7 +11780,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.440784420830793</v>
+        <v>1.436722614993727</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.281757732874468</v>
@@ -12133,7 +11869,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.44135021351432</v>
+        <v>1.440097203045789</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.272165081645559</v>
@@ -12222,7 +11958,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.443572508816879</v>
+        <v>1.446485505659787</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.276496197624208</v>
@@ -12311,7 +12047,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.449077657428126</v>
+        <v>1.45009684282224</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.290902999449958</v>
@@ -12400,7 +12136,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.468362715623722</v>
+        <v>1.461755150714734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.312738244752488</v>
@@ -12489,7 +12225,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.445244315522668</v>
+        <v>1.447229922537521</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.194855339402488</v>
@@ -12578,7 +12314,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.454993319247985</v>
+        <v>1.459393208947636</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.294369553282233</v>
@@ -12667,7 +12403,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.486047959047438</v>
+        <v>1.487341487434082</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.337194456622822</v>
@@ -12756,7 +12492,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.518972941903147</v>
+        <v>1.511006604749342</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.252826688923808</v>
@@ -12845,7 +12581,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545450619796291</v>
+        <v>1.539967899021523</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.273687125171264</v>
@@ -12934,7 +12670,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.529134762591784</v>
+        <v>1.526083432867952</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.350980492280507</v>
@@ -13023,7 +12759,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.530087827662489</v>
+        <v>1.527377999071532</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.26385670770898</v>
@@ -13112,7 +12848,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.529669927780031</v>
+        <v>1.524711822113932</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.316731645416242</v>
@@ -13201,7 +12937,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.535403925470549</v>
+        <v>1.531047886354735</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.527528585049539</v>
@@ -13290,7 +13026,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.551128972096307</v>
+        <v>1.543611980831439</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.288625236601976</v>
@@ -13379,7 +13115,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.553451825010143</v>
+        <v>1.545601784949249</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.296443312286271</v>
@@ -13468,7 +13204,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.53969645243836</v>
+        <v>1.525434374668051</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.300430213969531</v>
@@ -13557,7 +13293,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.541742319828767</v>
+        <v>1.530519405746668</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.238672881406544</v>
@@ -13646,7 +13382,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.494827867621835</v>
+        <v>1.489290896049342</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.35646422650988</v>
@@ -13735,7 +13471,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.501934530332672</v>
+        <v>1.496550563282004</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.549514104098266</v>
@@ -13824,7 +13560,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.53064368816839</v>
+        <v>1.520388432181419</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.336909286842266</v>
@@ -13913,7 +13649,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.520372174246618</v>
+        <v>1.512514833682416</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.640204071643931</v>
@@ -14002,7 +13738,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.490278361279973</v>
+        <v>1.486692749704829</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.328163334487305</v>
@@ -14091,7 +13827,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.436014518390873</v>
+        <v>1.436354592847981</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.163277418919801</v>
@@ -14180,7 +13916,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.437015929644471</v>
+        <v>1.434778535243519</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.263662687180732</v>
@@ -14269,7 +14005,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.461823818786219</v>
+        <v>1.455397158605773</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.256279430974592</v>
@@ -14358,7 +14094,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.45405267027471</v>
+        <v>1.45054288939775</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.182295102632827</v>
@@ -14447,7 +14183,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.451402866592237</v>
+        <v>1.449911705517513</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.190259717677042</v>
@@ -14536,7 +14272,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.412075105980432</v>
+        <v>1.414201941127872</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.279346664785913</v>
@@ -14625,7 +14361,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.415251977275829</v>
+        <v>1.418088557098012</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.321393413343977</v>
@@ -14714,7 +14450,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.419242272886908</v>
+        <v>1.418766406025106</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.325915046946246</v>
@@ -14803,7 +14539,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.427998469103827</v>
+        <v>1.433414620573753</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.176638209025699</v>
@@ -14892,7 +14628,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.429904603632758</v>
+        <v>1.43244884899041</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.354152903763451</v>
@@ -14981,7 +14717,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.469467887553953</v>
+        <v>1.47273286739585</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.263375973783008</v>
@@ -15070,7 +14806,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.47433636168837</v>
+        <v>1.476904303591941</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.236688729879528</v>
@@ -15159,7 +14895,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.465463064651457</v>
+        <v>1.47369583515427</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.204967290983689</v>
@@ -15248,7 +14984,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.468684323464503</v>
+        <v>1.475969993138338</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.198375564587862</v>
@@ -15337,7 +15073,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.486120105848161</v>
+        <v>1.493761501561562</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.158611730464296</v>
@@ -15426,7 +15162,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.541271389252941</v>
+        <v>1.539668518360406</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.32606265250526</v>
@@ -15515,7 +15251,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.47332799621489</v>
+        <v>1.472988994647044</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.398473757225274</v>
@@ -15604,7 +15340,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.452033900810548</v>
+        <v>1.456434558985196</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.483980970453709</v>
@@ -15693,7 +15429,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.447195579687573</v>
+        <v>1.451343586358828</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.392511898013021</v>
@@ -15782,7 +15518,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.457070338158485</v>
+        <v>1.46100420459745</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.455335615587914</v>
@@ -15871,7 +15607,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.514728186320085</v>
+        <v>1.517261245673242</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.434801587378138</v>
@@ -15960,7 +15696,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.506490104673813</v>
+        <v>1.509894910992764</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.422409395377482</v>
@@ -16049,7 +15785,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.491382760843009</v>
+        <v>1.497528199548606</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.398890169159688</v>
@@ -16138,7 +15874,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.487006393533096</v>
+        <v>1.489857521110199</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.452873314603719</v>
@@ -16227,7 +15963,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.49442769468509</v>
+        <v>1.493036671546958</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.422573547086588</v>
@@ -16316,7 +16052,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.467170848494175</v>
+        <v>1.465705899086827</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.453876697143945</v>
@@ -16405,7 +16141,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.462875486967002</v>
+        <v>1.462167289973313</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.236671650251302</v>
@@ -16494,7 +16230,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.474982573985537</v>
+        <v>1.473728987060418</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.389987430309851</v>
@@ -16583,7 +16319,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.484464802297382</v>
+        <v>1.482943124312311</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.360690759548951</v>
@@ -16672,7 +16408,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.493944636732039</v>
+        <v>1.487873920485484</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.283638502675596</v>
@@ -16761,7 +16497,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.477458235539827</v>
+        <v>1.473927593154583</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.190163671447585</v>
@@ -16850,7 +16586,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.536247057934789</v>
+        <v>1.528467470829337</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.252114160676722</v>
@@ -16939,7 +16675,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.562402385682018</v>
+        <v>1.548765426403742</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.016976221245612</v>
@@ -17028,7 +16764,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.542426614086605</v>
+        <v>1.531684118927496</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.185484314965156</v>
@@ -17117,7 +16853,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.535122793023638</v>
+        <v>1.521875548033896</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.201640226654017</v>
@@ -17206,7 +16942,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.52383480472076</v>
+        <v>1.504437157857221</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.099924432090915</v>
@@ -17295,7 +17031,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.507549555805928</v>
+        <v>1.488794940652758</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.243124330637386</v>
@@ -17384,7 +17120,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.517650936451231</v>
+        <v>1.50084550113961</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.195622330560945</v>
@@ -17473,7 +17209,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.488169509177937</v>
+        <v>1.472957192802545</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.183612637667738</v>
@@ -17759,7 +17495,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.61475390743064</v>
+        <v>1.590104058700889</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.023384404419033</v>
@@ -17848,7 +17584,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.60613101616611</v>
+        <v>1.580880691464686</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.712282909385896</v>
@@ -17937,7 +17673,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.611323520557519</v>
+        <v>1.581837817680276</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.89805195192048</v>
@@ -18026,7 +17762,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.622254828737032</v>
+        <v>1.591412510431422</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.639559913328661</v>
@@ -18115,7 +17851,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.640868948093406</v>
+        <v>1.599535537665033</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.135422214260213</v>
@@ -18204,7 +17940,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.644695024079691</v>
+        <v>1.595091701095634</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.873776743187389</v>
@@ -18293,7 +18029,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.634481281029264</v>
+        <v>1.587144896349872</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.736754561946592</v>
@@ -18382,7 +18118,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.623783295079498</v>
+        <v>1.576478713013755</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.964507117973632</v>
@@ -18471,7 +18207,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.626614167400707</v>
+        <v>1.581241637820371</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.191093854811437</v>
@@ -18560,7 +18296,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.639452902079928</v>
+        <v>1.591142764890368</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.196855313208388</v>
@@ -18649,7 +18385,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.62456840765375</v>
+        <v>1.579249294203951</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.035639967277572</v>
@@ -18738,7 +18474,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.611786792382559</v>
+        <v>1.568781882896541</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.038880680484673</v>
@@ -18827,7 +18563,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603820743562405</v>
+        <v>1.56320347689144</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.17374684319554</v>
@@ -18916,7 +18652,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.594393861158836</v>
+        <v>1.556919747184026</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.896671160195504</v>
@@ -19005,7 +18741,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.590199505303623</v>
+        <v>1.561342899204824</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.791008282740975</v>
@@ -19094,7 +18830,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.583068130186338</v>
+        <v>1.555506187365154</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.741146823860783</v>
@@ -19183,7 +18919,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.572226758047463</v>
+        <v>1.550963282927082</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.097836530416186</v>
@@ -19272,7 +19008,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.561259209623507</v>
+        <v>1.54623721994955</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.009845411971281</v>
@@ -19361,7 +19097,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.562160179185514</v>
+        <v>1.54778710589999</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.704755334797219</v>
@@ -19450,7 +19186,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560128169573713</v>
+        <v>1.543815332639184</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.983432658655037</v>
@@ -19539,7 +19275,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.549498113354157</v>
+        <v>1.540538172522215</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.86240552832098</v>
@@ -19628,7 +19364,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.558407808827818</v>
+        <v>1.546511163889147</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.694854178622451</v>
@@ -19717,7 +19453,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.57282287176595</v>
+        <v>1.56020601798521</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.830736215817106</v>
@@ -19806,7 +19542,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.5730232353502</v>
+        <v>1.562169345808791</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.724466607938321</v>
@@ -19895,7 +19631,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.571166094037175</v>
+        <v>1.560828969936868</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.50879174755913</v>
@@ -19984,7 +19720,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.565752823698289</v>
+        <v>1.558147055689816</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.695704549569958</v>
@@ -20073,7 +19809,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.563697203538224</v>
+        <v>1.558458732847186</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.713508043006281</v>
@@ -20162,7 +19898,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.555039801766465</v>
+        <v>1.54814392007904</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.570894652409388</v>
@@ -20251,7 +19987,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561113908418287</v>
+        <v>1.55166696524092</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.878307980523635</v>
@@ -20340,7 +20076,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.571782370439329</v>
+        <v>1.557104245589722</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.592558100634985</v>
@@ -20429,7 +20165,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.566325364042182</v>
+        <v>1.550904618638097</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.875544151426118</v>
@@ -20518,7 +20254,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.582278919557771</v>
+        <v>1.565086779378436</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.853465570344647</v>
@@ -20607,7 +20343,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.589428926323457</v>
+        <v>1.571005631701733</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.695494397296423</v>
@@ -20696,7 +20432,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57916945922261</v>
+        <v>1.562580986692915</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.78472312688824</v>
@@ -20785,7 +20521,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.59010433349685</v>
+        <v>1.573917221527328</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.796062447362062</v>
@@ -20874,7 +20610,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.605526968770939</v>
+        <v>1.583440260426834</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.819170645681988</v>
@@ -20963,7 +20699,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.605590936815428</v>
+        <v>1.586455497114003</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.112915506728287</v>
@@ -21052,7 +20788,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601491532374202</v>
+        <v>1.580246391103002</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.32411920012207</v>
@@ -21141,7 +20877,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.602918434092547</v>
+        <v>1.577412863410108</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.032827256689499</v>
@@ -21230,7 +20966,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.598929438516224</v>
+        <v>1.575738061491802</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.251245529146237</v>
@@ -21319,7 +21055,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607830072480044</v>
+        <v>1.586824950307051</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.900464001878105</v>
@@ -21408,7 +21144,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.616349557114755</v>
+        <v>1.585084948195688</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.140047926522017</v>
@@ -21497,7 +21233,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.627534779494254</v>
+        <v>1.596299577262324</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.901012663483441</v>
@@ -21586,7 +21322,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.618795567926353</v>
+        <v>1.589465933007679</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.32772580416388</v>
@@ -21675,7 +21411,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.613897861610291</v>
+        <v>1.589565926241768</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.104590625622836</v>
@@ -21764,7 +21500,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626711545758503</v>
+        <v>1.599625941072064</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.105270334662581</v>
@@ -21853,7 +21589,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.619185206975313</v>
+        <v>1.593244599669024</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.177236556965607</v>
@@ -21942,7 +21678,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.617715847273774</v>
+        <v>1.589131161397898</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.145454937334926</v>
@@ -22031,7 +21767,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.616017280002039</v>
+        <v>1.586097493177459</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.04467490457616</v>
@@ -22120,7 +21856,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.63226689267596</v>
+        <v>1.593430143878424</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.920227684261292</v>
@@ -22209,7 +21945,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.640008908145999</v>
+        <v>1.601596825295581</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.973020161702281</v>
@@ -22298,7 +22034,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.621671777894906</v>
+        <v>1.585283996210839</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.090684885244359</v>
@@ -22387,7 +22123,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.602268157963372</v>
+        <v>1.567825178549741</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.782720961677246</v>
@@ -22476,7 +22212,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.585907209322808</v>
+        <v>1.554164639026435</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.942008439152689</v>
@@ -22565,7 +22301,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.59804694225928</v>
+        <v>1.563675218348301</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.741271002506837</v>
@@ -22654,7 +22390,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.60587786464755</v>
+        <v>1.565684149080243</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.787413062026417</v>
@@ -22743,7 +22479,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.605708742817108</v>
+        <v>1.56941843247331</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.93762996228193</v>
@@ -22832,7 +22568,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.60492513980291</v>
+        <v>1.565888431284631</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.94937920042989</v>
@@ -22921,7 +22657,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.621904433369846</v>
+        <v>1.578781905618369</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.743375078408733</v>
@@ -23010,7 +22746,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.62198708785694</v>
+        <v>1.574568086961653</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.927913187322853</v>
@@ -23099,7 +22835,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.614240357331423</v>
+        <v>1.566670922831719</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.929489054661944</v>
@@ -23188,7 +22924,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.619967557981362</v>
+        <v>1.569207515740266</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.876962772965927</v>
@@ -23277,7 +23013,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.605556591949622</v>
+        <v>1.559751222462696</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.643542484984938</v>
@@ -23366,7 +23102,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.619629101936064</v>
+        <v>1.569668526311986</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.824412637837203</v>
@@ -23455,7 +23191,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.596741574594013</v>
+        <v>1.548715268883271</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.960157871488237</v>
@@ -23544,7 +23280,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.581371343351851</v>
+        <v>1.537681730950153</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.940030253604148</v>
@@ -23633,7 +23369,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.588394384551905</v>
+        <v>1.543029032172542</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.153854754397747</v>
@@ -23722,7 +23458,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.60504795112416</v>
+        <v>1.557305692160307</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.777224801619307</v>
@@ -23811,7 +23547,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.614095788542118</v>
+        <v>1.567755459770695</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.151958150763329</v>
@@ -23900,7 +23636,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.609381163490518</v>
+        <v>1.56194131657288</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.984414225587161</v>
@@ -23989,7 +23725,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.609990929150077</v>
+        <v>1.566661738964737</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.055866483553067</v>
@@ -24078,7 +23814,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.606659910155936</v>
+        <v>1.564987901251102</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.063814407683177</v>
@@ -24167,7 +23903,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.611402135514707</v>
+        <v>1.568849842363851</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.105808114324636</v>
@@ -24256,7 +23992,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.610060095869952</v>
+        <v>1.573058134009597</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.678236617788468</v>
@@ -24345,7 +24081,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.608822598237693</v>
+        <v>1.571248409081504</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.194834750277828</v>
@@ -24434,7 +24170,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.612559057211741</v>
+        <v>1.576091018977784</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.139513735310757</v>
@@ -24523,7 +24259,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.609094380508734</v>
+        <v>1.57867258398193</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.72680578887719</v>
@@ -24612,7 +24348,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.620692559691147</v>
+        <v>1.58801903945554</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.950341948473757</v>
@@ -24701,7 +24437,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.622012877328743</v>
+        <v>1.593476593602403</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.599209685895311</v>
@@ -24790,7 +24526,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.62956791785656</v>
+        <v>1.606524856860962</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.798849476939034</v>
@@ -24879,7 +24615,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.648625831438931</v>
+        <v>1.621001436940197</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.513932884735564</v>
@@ -24968,7 +24704,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.648932928236708</v>
+        <v>1.624915702228831</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.265140907178434</v>
@@ -25057,7 +24793,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.651658307975614</v>
+        <v>1.628770049270654</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.132426862215885</v>
@@ -25146,7 +24882,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.652403440076445</v>
+        <v>1.622173890072292</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.270592488854943</v>
@@ -25235,7 +24971,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.623372065495722</v>
+        <v>1.595701959142104</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.973865631777401</v>
@@ -25324,7 +25060,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.610407310263655</v>
+        <v>1.584832633996363</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.65851157706756</v>
@@ -25413,7 +25149,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.60521167448462</v>
+        <v>1.582448091895998</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.880819568718983</v>
@@ -25699,7 +25435,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.461352762718091</v>
+        <v>1.434611420857939</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.387123421270733</v>
@@ -25788,7 +25524,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.455093854099976</v>
+        <v>1.429982008030588</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.388977925903335</v>
@@ -25877,7 +25613,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.454954812778866</v>
+        <v>1.431938602616379</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.289236958649824</v>
@@ -25966,7 +25702,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468861864666354</v>
+        <v>1.449418497035571</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.288641530034984</v>
@@ -26055,7 +25791,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.483183021799703</v>
+        <v>1.461967232642201</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.41581851740143</v>
@@ -26144,7 +25880,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.491592067484453</v>
+        <v>1.473043698098867</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.330857204829737</v>
@@ -26233,7 +25969,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.49222180819374</v>
+        <v>1.477132002222676</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.521905930261751</v>
@@ -26322,7 +26058,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.489866127342823</v>
+        <v>1.477937922229834</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.317909006214408</v>
@@ -26411,7 +26147,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.486588962768874</v>
+        <v>1.477333873849618</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.495305914977082</v>
@@ -26500,7 +26236,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.475846917891591</v>
+        <v>1.464620879468653</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.261514785189651</v>
@@ -26589,7 +26325,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.491723622213529</v>
+        <v>1.476082827177684</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.33532193859128</v>
@@ -26678,7 +26414,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.463088117064283</v>
+        <v>1.453805174153398</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.382431845436073</v>
@@ -26767,7 +26503,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.466204434256951</v>
+        <v>1.459869829204284</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.328976015646128</v>
@@ -26856,7 +26592,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.46952827199172</v>
+        <v>1.466706143708007</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.547169659506942</v>
@@ -26945,7 +26681,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.470945936835038</v>
+        <v>1.467264450303688</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.552095558942445</v>
@@ -27034,7 +26770,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.4639394808629</v>
+        <v>1.46256436597421</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.250025591699771</v>
@@ -27123,7 +26859,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.46978879720948</v>
+        <v>1.463613797459822</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.501462719582869</v>
@@ -27212,7 +26948,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.478236641143399</v>
+        <v>1.469839325997905</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.519104344454361</v>
@@ -27301,7 +27037,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.482339395758634</v>
+        <v>1.473165532735529</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.445229167310206</v>
@@ -27390,7 +27126,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.471131670373195</v>
+        <v>1.465254544200907</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.505396958483519</v>
@@ -27479,7 +27215,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.463874170796945</v>
+        <v>1.458000571608597</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.553511785237498</v>
@@ -27568,7 +27304,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.46747396671909</v>
+        <v>1.461139988647597</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.515005167687551</v>
@@ -27657,7 +27393,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.481809299586742</v>
+        <v>1.468130458385032</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.256415653005017</v>
@@ -27746,7 +27482,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.494586893745997</v>
+        <v>1.481745443912936</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.452671390129924</v>
@@ -27835,7 +27571,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.509746918996446</v>
+        <v>1.492129595607278</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.541190290047831</v>
@@ -27924,7 +27660,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.511936928941871</v>
+        <v>1.494391160194574</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.333094569903103</v>
@@ -28013,7 +27749,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.533956582205714</v>
+        <v>1.513370177197814</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.647502226818681</v>
@@ -28102,7 +27838,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.540819329056184</v>
+        <v>1.512429651428012</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.918771889610646</v>
@@ -28191,7 +27927,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54905987185269</v>
+        <v>1.517425507708117</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.1038269363655</v>
@@ -28280,7 +28016,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.558493337269113</v>
+        <v>1.524843235955904</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.84861004074376</v>
@@ -28369,7 +28105,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.557452204278919</v>
+        <v>1.524314965170658</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.944585464782207</v>
@@ -28458,7 +28194,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.559746870949424</v>
+        <v>1.527605144643573</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.103110374160273</v>
@@ -28547,7 +28283,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.575888206755759</v>
+        <v>1.539246695481825</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.920476104606921</v>
@@ -28636,7 +28372,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.589274652066409</v>
+        <v>1.550236731592918</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.093329575048391</v>
@@ -28725,7 +28461,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.598386314302296</v>
+        <v>1.556952055101142</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.436372610666906</v>
@@ -28814,7 +28550,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.589436550566464</v>
+        <v>1.5526718245801</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.263897081396927</v>
@@ -28903,7 +28639,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576106569528632</v>
+        <v>1.538432747155984</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.515215698030044</v>
@@ -28992,7 +28728,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.570573696747692</v>
+        <v>1.53147298967589</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.500935885686804</v>
@@ -29081,7 +28817,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.563381623392051</v>
+        <v>1.524188503613859</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.078137319756061</v>
@@ -29170,7 +28906,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.570463408979472</v>
+        <v>1.536367626455014</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.160458585364452</v>
@@ -29259,7 +28995,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.568807016272856</v>
+        <v>1.53406552391037</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.531428889526259</v>
@@ -29348,7 +29084,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.569803165010121</v>
+        <v>1.523285509348723</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.909186040233169</v>
@@ -29437,7 +29173,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.578538752825355</v>
+        <v>1.534312595625025</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.857487022304103</v>
@@ -29526,7 +29262,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.562624038444975</v>
+        <v>1.522005448804016</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.060735182893701</v>
@@ -29615,7 +29351,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.554169291117877</v>
+        <v>1.5217806651313</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.113191914462699</v>
@@ -29704,7 +29440,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.558327931146175</v>
+        <v>1.525234085268641</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.701983592644396</v>
@@ -29793,7 +29529,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.554697986768063</v>
+        <v>1.526329116935104</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.024839466156668</v>
@@ -29882,7 +29618,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.550519640113039</v>
+        <v>1.520785597442487</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.864065750987787</v>
@@ -29971,7 +29707,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.530686137833605</v>
+        <v>1.500644259520494</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.788408104958895</v>
@@ -30060,7 +29796,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.53501116834437</v>
+        <v>1.502535836898917</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.990337739864072</v>
@@ -30149,7 +29885,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.541790654030147</v>
+        <v>1.501557823643678</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.966347412716188</v>
@@ -30238,7 +29974,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.558393360555421</v>
+        <v>1.513217851893032</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.621946624560863</v>
@@ -30327,7 +30063,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.559269105888917</v>
+        <v>1.517730328326071</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.196027418087549</v>
@@ -30416,7 +30152,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.556350967879625</v>
+        <v>1.518529532323881</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.06783260918072</v>
@@ -30505,7 +30241,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.556679866691392</v>
+        <v>1.520116883445725</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.019271014946474</v>
@@ -30594,7 +30330,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.557259058553485</v>
+        <v>1.521249541768718</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.027527288175209</v>
@@ -30683,7 +30419,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.564443505071664</v>
+        <v>1.537360964686027</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.170726594313992</v>
@@ -30772,7 +30508,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.56754392926464</v>
+        <v>1.534214900504278</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.066854715459361</v>
@@ -30861,7 +30597,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.572062139946672</v>
+        <v>1.534370333091726</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.707243537666364</v>
@@ -30950,7 +30686,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.575617219582924</v>
+        <v>1.5272903944723</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.927432597802861</v>
@@ -31039,7 +30775,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.571326246663495</v>
+        <v>1.526052764472159</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.311982601415898</v>
@@ -31128,7 +30864,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.566907001277439</v>
+        <v>1.517628591094822</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.113799932638158</v>
@@ -31217,7 +30953,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.56541453188641</v>
+        <v>1.516927029565456</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.462485218387384</v>
@@ -31306,7 +31042,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.56843394905449</v>
+        <v>1.511007934651448</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.433711815717782</v>
@@ -31395,7 +31131,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.547712554503087</v>
+        <v>1.490532778292419</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.004529200665335</v>
@@ -31484,7 +31220,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.5364139131795</v>
+        <v>1.487314418630981</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.989877833969928</v>
@@ -31573,7 +31309,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.536118258258413</v>
+        <v>1.490549423661761</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.755296924088608</v>
@@ -31662,7 +31398,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.536772555224018</v>
+        <v>1.489076808957962</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.855253612800006</v>
@@ -31751,7 +31487,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.539316454378938</v>
+        <v>1.487386328623196</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.950793436918585</v>
@@ -31840,7 +31576,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.540539390303065</v>
+        <v>1.488507653994406</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.908220174979099</v>
@@ -31929,7 +31665,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.544092785754431</v>
+        <v>1.487512077090226</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.042150445310749</v>
@@ -32018,7 +31754,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.538621282751418</v>
+        <v>1.483598734155888</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.904698706255331</v>
@@ -32107,7 +31843,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.54209326789038</v>
+        <v>1.477298668812121</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.771434521482217</v>
@@ -32196,7 +31932,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.541382792089017</v>
+        <v>1.482147826876483</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.860009234974302</v>
@@ -32285,7 +32021,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.545923548905732</v>
+        <v>1.490626791741199</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.897948583820297</v>
@@ -32374,7 +32110,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.542061316751607</v>
+        <v>1.484826064997929</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.904448703459627</v>
@@ -32463,7 +32199,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.556035813936144</v>
+        <v>1.492834625990504</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.008953525718294</v>
@@ -32552,7 +32288,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.564336005846156</v>
+        <v>1.499981761221306</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.633691093965186</v>
@@ -32641,7 +32377,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.569615117126764</v>
+        <v>1.507868865993414</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.884247826465474</v>
@@ -32730,7 +32466,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.577609685618486</v>
+        <v>1.5206545494651</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.90765062517344</v>
@@ -32819,7 +32555,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.585879895403916</v>
+        <v>1.52643099822436</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.845629523195939</v>
@@ -32908,7 +32644,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.58044667935846</v>
+        <v>1.521486039206445</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.114712734202905</v>
@@ -32997,7 +32733,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.587596267516242</v>
+        <v>1.532319009590522</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.738599906424457</v>
@@ -33086,7 +32822,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.591989122579294</v>
+        <v>1.535406483016136</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.7273110596609</v>
@@ -33175,7 +32911,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.597406103172332</v>
+        <v>1.530476509120179</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.904222669907203</v>
@@ -33264,7 +33000,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.589761752223608</v>
+        <v>1.52671969277206</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.076971467756797</v>
@@ -33353,7 +33089,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.594487276703851</v>
+        <v>1.528655805713452</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.22046791207767</v>
@@ -33639,7 +33375,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.450557721833591</v>
+        <v>1.440742637392047</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.387755730552108</v>
@@ -33728,7 +33464,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452743326225373</v>
+        <v>1.441959801885308</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.278099170805537</v>
@@ -33817,7 +33553,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.468931053272124</v>
+        <v>1.454454861555083</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.37415797180222</v>
@@ -33906,7 +33642,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.428266547597697</v>
+        <v>1.423681379880092</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.308126296844045</v>
@@ -33995,7 +33731,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.457749085508729</v>
+        <v>1.451029360735893</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.230837656408083</v>
@@ -34084,7 +33820,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.451291489309663</v>
+        <v>1.449143159151469</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.137771056280673</v>
@@ -34173,7 +33909,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.460287853156558</v>
+        <v>1.458549920907722</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.083469837091963</v>
@@ -34262,7 +33998,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.440068229526759</v>
+        <v>1.438784213616525</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.208871437107259</v>
@@ -34351,7 +34087,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.433853417443682</v>
+        <v>1.436572965447226</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.168837553617178</v>
@@ -34440,7 +34176,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.431179574443261</v>
+        <v>1.422124893930288</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.207789508434313</v>
@@ -34529,7 +34265,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.392281357413671</v>
+        <v>1.401264056975797</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.206054428493043</v>
@@ -34618,7 +34354,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.423220063303012</v>
+        <v>1.430098730487028</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.227943866574499</v>
@@ -34707,7 +34443,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.421817861965232</v>
+        <v>1.42631916502768</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.142599466085227</v>
@@ -34796,7 +34532,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.421222938552336</v>
+        <v>1.427740049878338</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.183667905400195</v>
@@ -34885,7 +34621,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.4354854293194</v>
+        <v>1.441048485628015</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.195857970348864</v>
@@ -34974,7 +34710,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.431734745181478</v>
+        <v>1.433446443267588</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.155647925893628</v>
@@ -35063,7 +34799,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.439169403519281</v>
+        <v>1.438424373054512</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.179356938395972</v>
@@ -35152,7 +34888,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.379058994938589</v>
+        <v>1.376652049734848</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.020520066411105</v>
@@ -35241,7 +34977,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.411062223197082</v>
+        <v>1.405795003330652</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.0881903224857</v>
@@ -35330,7 +35066,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.410009770615755</v>
+        <v>1.405963110940279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.140279704559213</v>
@@ -35419,7 +35155,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.417829989879568</v>
+        <v>1.411034330009277</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.195854501662017</v>
@@ -35508,7 +35244,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.418390719613983</v>
+        <v>1.411857228890398</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.192699568821324</v>
@@ -35597,7 +35333,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.453014844401597</v>
+        <v>1.443241684961905</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.25675708373001</v>
@@ -35686,7 +35422,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.416585047806748</v>
+        <v>1.408174695379385</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.172073163662695</v>
@@ -35775,7 +35511,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.422408677592852</v>
+        <v>1.412406674100465</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.94119723841883</v>
@@ -35864,7 +35600,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.427954171596573</v>
+        <v>1.41906393746517</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.202366565413487</v>
@@ -35953,7 +35689,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.436000609898841</v>
+        <v>1.427174842470404</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.17086594235485</v>
@@ -36042,7 +35778,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.437465455722877</v>
+        <v>1.428138890087097</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.229647605498664</v>
@@ -36131,7 +35867,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.442979533909977</v>
+        <v>1.432321019614148</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.21940064171649</v>
@@ -36220,7 +35956,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.438566140077035</v>
+        <v>1.427260429381787</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.187549517762401</v>
@@ -36309,7 +36045,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.411500943427789</v>
+        <v>1.40433887962053</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.215891361486882</v>
@@ -36398,7 +36134,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.43512159203323</v>
+        <v>1.430503841696298</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.895514453359202</v>
@@ -36487,7 +36223,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.474635482393696</v>
+        <v>1.46825328411614</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.157508536796864</v>
@@ -36576,7 +36312,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.460498816198428</v>
+        <v>1.452915996734791</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.296663005078905</v>
@@ -36665,7 +36401,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.465845466035081</v>
+        <v>1.461372062697194</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.206728361458157</v>
@@ -36754,7 +36490,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.459999462968459</v>
+        <v>1.454155628929631</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.210689527464651</v>
@@ -36843,7 +36579,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.453337146543776</v>
+        <v>1.445770217738759</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.304974451008614</v>
@@ -36932,7 +36668,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.418310328925605</v>
+        <v>1.41307781701776</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.306512889412944</v>
@@ -37021,7 +36757,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.450076506560711</v>
+        <v>1.445508071924185</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.285092779680359</v>
@@ -37110,7 +36846,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.464333629591893</v>
+        <v>1.449424511592291</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.346763021847804</v>
@@ -37199,7 +36935,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.441193982857707</v>
+        <v>1.423682895857973</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.350498455622152</v>
@@ -37288,7 +37024,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.418944751606814</v>
+        <v>1.412658214685602</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.313907425571508</v>
@@ -37377,7 +37113,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.420360953772316</v>
+        <v>1.415319627790537</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.351071621797699</v>
@@ -37466,7 +37202,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.417187419342214</v>
+        <v>1.409320761397361</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.326763948808999</v>
@@ -37555,7 +37291,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.390680176603941</v>
+        <v>1.387454395824529</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.396099766073034</v>
@@ -37644,7 +37380,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.424227977833035</v>
+        <v>1.419694297610408</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.22852389240136</v>
@@ -37733,7 +37469,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.41411332194809</v>
+        <v>1.40763423147408</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.372518463823357</v>
@@ -37822,7 +37558,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.415269390920004</v>
+        <v>1.409299377468107</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.380672867051496</v>
@@ -37911,7 +37647,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.425346755470473</v>
+        <v>1.420943123983232</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.331524622359093</v>
@@ -38000,7 +37736,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.42518836729341</v>
+        <v>1.417352898194864</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.39575883247336</v>
@@ -38089,7 +37825,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.408546527797056</v>
+        <v>1.398991720801223</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.37239659196649</v>
@@ -38178,7 +37914,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.413024017406984</v>
+        <v>1.402930322060597</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.238133605416978</v>
@@ -38267,7 +38003,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.441291840943374</v>
+        <v>1.43201202243431</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.241236047792857</v>
@@ -38356,7 +38092,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.44164821930424</v>
+        <v>1.433351030059866</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.29324554100925</v>
@@ -38445,7 +38181,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.456181029196441</v>
+        <v>1.447372131642224</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.249731386450468</v>
@@ -38534,7 +38270,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.492306226343395</v>
+        <v>1.480472188925528</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.174950700592456</v>
@@ -38623,7 +38359,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.49683740132897</v>
+        <v>1.484420207125388</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.312315735392578</v>
@@ -38712,7 +38448,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.474196293052995</v>
+        <v>1.465674694276471</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.310934486645578</v>
@@ -38801,7 +38537,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.50154011343922</v>
+        <v>1.49192505511546</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.070317860637812</v>
@@ -38890,7 +38626,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.505790562037483</v>
+        <v>1.491249142320673</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.294836761851622</v>
@@ -38979,7 +38715,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.483049322124623</v>
+        <v>1.47172551195944</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.334386393983525</v>
@@ -39068,7 +38804,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.490421224785059</v>
+        <v>1.481648393003279</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.335494537833396</v>
@@ -39157,7 +38893,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.496562327214203</v>
+        <v>1.487009832025586</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.358544941766676</v>
@@ -39246,7 +38982,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.50482589599177</v>
+        <v>1.491336272480358</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.405452694793513</v>
@@ -39335,7 +39071,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.487499117323497</v>
+        <v>1.479189334311257</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.354088743926627</v>
@@ -39424,7 +39160,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.530295556639592</v>
+        <v>1.517404871822294</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.484024355951652</v>
@@ -39513,7 +39249,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.522265057352395</v>
+        <v>1.509410289249287</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.514196210320778</v>
@@ -39602,7 +39338,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.522797874948758</v>
+        <v>1.510713241650064</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.558415417920397</v>
@@ -39691,7 +39427,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.523705136130861</v>
+        <v>1.508134693183821</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.528689920750932</v>
@@ -39780,7 +39516,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.541086219211379</v>
+        <v>1.520034055209149</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.531647340974639</v>
@@ -39869,7 +39605,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.537339963637609</v>
+        <v>1.514320836891024</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.447691173351205</v>
@@ -39958,7 +39694,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.538684104315159</v>
+        <v>1.512792167782065</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.382765463872744</v>
@@ -40047,7 +39783,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.485067381546979</v>
+        <v>1.470084111051948</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.23654305075542</v>
@@ -40136,7 +39872,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.474294373067695</v>
+        <v>1.464809667427474</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.258406539755007</v>
@@ -40225,7 +39961,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.484328344690287</v>
+        <v>1.473911177210824</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.269482837115754</v>
@@ -40314,7 +40050,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.489988810659403</v>
+        <v>1.475563345757523</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.230158550798462</v>
@@ -40403,7 +40139,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.488687992967039</v>
+        <v>1.470344832082793</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.240822395734775</v>
@@ -40492,7 +40228,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.493512463838014</v>
+        <v>1.473837575656856</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.259865034357009</v>
@@ -40581,7 +40317,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.487104778907938</v>
+        <v>1.463029535557746</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.154759166599832</v>
@@ -40670,7 +40406,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.449982903677731</v>
+        <v>1.442093404695764</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.207980468608504</v>
@@ -40759,7 +40495,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.431840226406447</v>
+        <v>1.42155458798642</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.226073379451432</v>
@@ -40848,7 +40584,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.430723444695161</v>
+        <v>1.422869935219233</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.210079988434243</v>
@@ -40937,7 +40673,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.425326231696304</v>
+        <v>1.416674051152175</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.272575825720918</v>
@@ -41026,7 +40762,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.422946787364357</v>
+        <v>1.415394487061247</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.228145401180434</v>
@@ -41115,7 +40851,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.421530714540075</v>
+        <v>1.407365812559479</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.245107999418634</v>
@@ -41204,7 +40940,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.394048652495759</v>
+        <v>1.383178162577625</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.260236536391359</v>
@@ -41293,7 +41029,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.400662876039545</v>
+        <v>1.385736226844434</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.96460576196993</v>
@@ -41579,7 +41315,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.521000192248941</v>
+        <v>1.498500393560244</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.885254638588619</v>
@@ -41668,7 +41404,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.515558302681452</v>
+        <v>1.491398409007456</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.633744022750314</v>
@@ -41757,7 +41493,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.533945588964352</v>
+        <v>1.5063132462978</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.787884660244401</v>
@@ -41846,7 +41582,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.535975663725954</v>
+        <v>1.506154036380677</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.681554219786578</v>
@@ -41935,7 +41671,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.554074413256696</v>
+        <v>1.514506151105161</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.747568345071407</v>
@@ -42024,7 +41760,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.554922312682821</v>
+        <v>1.511977860933378</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.846238900762943</v>
@@ -42113,7 +41849,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.565701472434176</v>
+        <v>1.525068253986769</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.907673796718324</v>
@@ -42202,7 +41938,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.558711488644085</v>
+        <v>1.517434564845783</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.777661889634798</v>
@@ -42291,7 +42027,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.548950293934383</v>
+        <v>1.514111968508848</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.776401060651836</v>
@@ -42380,7 +42116,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.545009328932319</v>
+        <v>1.514392887973765</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.645801115957823</v>
@@ -42469,7 +42205,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535710978394425</v>
+        <v>1.508112399872052</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.888040304928309</v>
@@ -42558,7 +42294,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.537731361258055</v>
+        <v>1.506996076717241</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.868776410453389</v>
@@ -42647,7 +42383,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.554656279657544</v>
+        <v>1.51633775431906</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.898537548503351</v>
@@ -42736,7 +42472,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552591093364789</v>
+        <v>1.519749657356339</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.52759350130105</v>
@@ -42825,7 +42561,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.554022534263423</v>
+        <v>1.521422507105015</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.778714988848392</v>
@@ -42914,7 +42650,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.550022038733267</v>
+        <v>1.516736602011571</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.677622903408468</v>
@@ -43003,7 +42739,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.533633777601572</v>
+        <v>1.504574024160476</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.810847807275797</v>
@@ -43092,7 +42828,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.537787716332718</v>
+        <v>1.510217125302164</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.857221441404233</v>
@@ -43181,7 +42917,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.543044638670791</v>
+        <v>1.5131634823898</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.78472808955772</v>
@@ -43270,7 +43006,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554090111108041</v>
+        <v>1.528551214346678</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.092654405112863</v>
@@ -43359,7 +43095,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548287714054185</v>
+        <v>1.524291328599575</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.846899887815018</v>
@@ -43448,7 +43184,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.547751169012467</v>
+        <v>1.522743046157536</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.634584360179502</v>
@@ -43537,7 +43273,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.557431183797903</v>
+        <v>1.531905173060285</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.86141601614037</v>
@@ -43626,7 +43362,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55149497254856</v>
+        <v>1.522616825304544</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.811215681890584</v>
@@ -43715,7 +43451,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.547587854615431</v>
+        <v>1.524238359581387</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.670847827739031</v>
@@ -43804,7 +43540,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.544741001492825</v>
+        <v>1.519470123516178</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.984820213343703</v>
@@ -43893,7 +43629,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.536508339110257</v>
+        <v>1.51628553005607</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.004435028994455</v>
@@ -43982,7 +43718,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53059582745298</v>
+        <v>1.511194827286222</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.891078592712755</v>
@@ -44071,7 +43807,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534278986814488</v>
+        <v>1.513416923729851</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.874931651494811</v>
@@ -44160,7 +43896,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.541001425742592</v>
+        <v>1.516956630296395</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.76158256447682</v>
@@ -44249,7 +43985,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.524551477913579</v>
+        <v>1.506849164433808</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.761102165799938</v>
@@ -44338,7 +44074,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.546182450502972</v>
+        <v>1.525267686866924</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.588889364715703</v>
@@ -44427,7 +44163,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.54104428344596</v>
+        <v>1.523933153379285</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.9143807316659</v>
@@ -44516,7 +44252,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.540144712931685</v>
+        <v>1.52059134516957</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.64652220196697</v>
@@ -44605,7 +44341,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.536940558865023</v>
+        <v>1.515909557533333</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.938554655303838</v>
@@ -44694,7 +44430,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531861669152505</v>
+        <v>1.513248497268685</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.002665527916968</v>
@@ -44783,7 +44519,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.537361877496687</v>
+        <v>1.516953602512191</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.170184872023658</v>
@@ -44872,7 +44608,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535779829132351</v>
+        <v>1.514584115248021</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.006959329883466</v>
@@ -44961,7 +44697,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.546267859501722</v>
+        <v>1.525892042597282</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.94248929562339</v>
@@ -45050,7 +44786,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.560347326012255</v>
+        <v>1.530203647121148</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.953421362137349</v>
@@ -45139,7 +44875,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.568372069110421</v>
+        <v>1.536170537717334</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.153645718290492</v>
@@ -45228,7 +44964,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.56938880846183</v>
+        <v>1.537183251354046</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.020099998831355</v>
@@ -45317,7 +45053,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582830498484385</v>
+        <v>1.54532161576048</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.156565729158732</v>
@@ -45406,7 +45142,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.566831964319572</v>
+        <v>1.536477180957849</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.162913462362255</v>
@@ -45495,7 +45231,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.564172103523527</v>
+        <v>1.53796199527457</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.01834376460867</v>
@@ -45584,7 +45320,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.577889900913284</v>
+        <v>1.551796137645924</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.253429363498447</v>
@@ -45673,7 +45409,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.573799601771401</v>
+        <v>1.546478095961554</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.999167601130268</v>
@@ -45762,7 +45498,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.5749041540408</v>
+        <v>1.550526067153385</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.933878279213927</v>
@@ -45851,7 +45587,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.565591626823843</v>
+        <v>1.547785704132556</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.911343153597433</v>
@@ -45940,7 +45676,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.569218165820237</v>
+        <v>1.547314102939827</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.82766450990672</v>
@@ -46029,7 +45765,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.591093425171247</v>
+        <v>1.556345319966173</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.139422529942878</v>
@@ -46118,7 +45854,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.584685315243669</v>
+        <v>1.543852701734271</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.898744708163599</v>
@@ -46207,7 +45943,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.557597694614819</v>
+        <v>1.522938101212432</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.921762886460225</v>
@@ -46296,7 +46032,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.550016888943607</v>
+        <v>1.521237248850124</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.917276581979797</v>
@@ -46385,7 +46121,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.54959425287999</v>
+        <v>1.524859164504438</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.925141361080159</v>
@@ -46474,7 +46210,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.558463006796303</v>
+        <v>1.533738849104945</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.816681473046931</v>
@@ -46563,7 +46299,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.564386516999604</v>
+        <v>1.536029878050489</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.039857595313575</v>
@@ -46652,7 +46388,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.55883240322798</v>
+        <v>1.537126356942811</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.832347138368973</v>
@@ -46741,7 +46477,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.583436788219885</v>
+        <v>1.553831623115301</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.734175291984782</v>
@@ -46830,7 +46566,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.583012686130076</v>
+        <v>1.549225742036639</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.922049519095064</v>
@@ -46919,7 +46655,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.574234270836419</v>
+        <v>1.541886980625605</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.841616787569528</v>
@@ -47008,7 +46744,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.57461771540482</v>
+        <v>1.543057330307656</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.013994448467967</v>
@@ -47097,7 +46833,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.562833418235411</v>
+        <v>1.53154269591498</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.839953256281802</v>
@@ -47186,7 +46922,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.574009377545407</v>
+        <v>1.535866792050989</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.534099418719928</v>
@@ -47275,7 +47011,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.558668684015349</v>
+        <v>1.526144896430628</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.08048816092283</v>
@@ -47364,7 +47100,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.551114531293437</v>
+        <v>1.522229886894719</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.923477723958196</v>
@@ -47453,7 +47189,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.56097350580873</v>
+        <v>1.536333598529789</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.764482317029307</v>
@@ -47542,7 +47278,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.586888974730764</v>
+        <v>1.555824987485116</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.110968548038584</v>
@@ -47631,7 +47367,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.590312613243985</v>
+        <v>1.555777742275307</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.975845753842541</v>
@@ -47720,7 +47456,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.587956343088786</v>
+        <v>1.548081112191889</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.021426714100641</v>
@@ -47809,7 +47545,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.581342790703204</v>
+        <v>1.538991730562928</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.113536266240471</v>
@@ -47898,7 +47634,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.581189098111174</v>
+        <v>1.542936023894873</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.068536444520858</v>
@@ -47987,7 +47723,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.589072728256979</v>
+        <v>1.551407706015779</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.017364346444647</v>
@@ -48076,7 +47812,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.579581901032117</v>
+        <v>1.542848905387675</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.944910577533463</v>
@@ -48165,7 +47901,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.588585175120757</v>
+        <v>1.555076542175502</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.843060843993463</v>
@@ -48254,7 +47990,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.592146025845531</v>
+        <v>1.557602857577884</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.059744156238383</v>
@@ -48343,7 +48079,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.594292817792262</v>
+        <v>1.55444971210211</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.94288571381369</v>
@@ -48432,7 +48168,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.612194322241241</v>
+        <v>1.571371718077937</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.813474505389616</v>
@@ -48521,7 +48257,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.628341263491868</v>
+        <v>1.589418781487267</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.437822868986629</v>
@@ -48610,7 +48346,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.631333010940767</v>
+        <v>1.590797697143331</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.119647610864332</v>
@@ -48699,7 +48435,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.649199834907888</v>
+        <v>1.605215080581181</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.357018716333645</v>
@@ -48788,7 +48524,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.63904446994014</v>
+        <v>1.597715874996597</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.31573447388268</v>
@@ -48877,7 +48613,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.64595687797365</v>
+        <v>1.601449716581215</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.854288030472068</v>
@@ -48966,7 +48702,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.649324731967938</v>
+        <v>1.601715448073385</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.956058367197029</v>
@@ -49055,7 +48791,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.628990477727491</v>
+        <v>1.590868893318976</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.061225798304505</v>
@@ -49144,7 +48880,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.628067441122382</v>
+        <v>1.594004445707172</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.831915856955054</v>
@@ -49233,7 +48969,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.626175511803623</v>
+        <v>1.593011253185798</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.005156180310486</v>
@@ -49519,7 +49255,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.313725720595082</v>
+        <v>1.299421753951139</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.218440723995071</v>
@@ -49608,7 +49344,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.308502451292725</v>
+        <v>1.290504509093629</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.976814770887208</v>
@@ -49697,7 +49433,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.340408857712093</v>
+        <v>1.322916509423884</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.193082208662593</v>
@@ -49786,7 +49522,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.363184463244022</v>
+        <v>1.345853231311585</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.26404971065801</v>
@@ -49875,7 +49611,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.365468851226423</v>
+        <v>1.347518024173892</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.220290830336608</v>
@@ -49964,7 +49700,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.366687719466329</v>
+        <v>1.353179749504992</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.317805229763418</v>
@@ -50053,7 +49789,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.380609307576791</v>
+        <v>1.369288363536529</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.377167097685269</v>
@@ -50142,7 +49878,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.374859328032038</v>
+        <v>1.360154238931562</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.191111954213839</v>
@@ -50231,7 +49967,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.369607442153483</v>
+        <v>1.361289141758293</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.1087740993218</v>
@@ -50320,7 +50056,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.356634679712589</v>
+        <v>1.353681967821767</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.193541287613991</v>
@@ -50409,7 +50145,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.339382501829192</v>
+        <v>1.335675704645999</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.243812996268312</v>
@@ -50498,7 +50234,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.333055870344855</v>
+        <v>1.326107271119878</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.261159813152571</v>
@@ -50587,7 +50323,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.345405214381751</v>
+        <v>1.33720204780877</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.190884743821638</v>
@@ -50676,7 +50412,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.352425462717133</v>
+        <v>1.345235369449295</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.153666873095718</v>
@@ -50765,7 +50501,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.373472680320904</v>
+        <v>1.367989224815114</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.305712007036437</v>
@@ -50854,7 +50590,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.369790390527314</v>
+        <v>1.356619900471054</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.003537434894733</v>
@@ -50943,7 +50679,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.386424410104398</v>
+        <v>1.381014387616058</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.260630072652627</v>
@@ -51032,7 +50768,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.366580335913359</v>
+        <v>1.365231697900237</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.267346972721372</v>
@@ -51121,7 +50857,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.368547485766295</v>
+        <v>1.367236398102744</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.42135626230881</v>
@@ -51210,7 +50946,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.34871561618611</v>
+        <v>1.349195828980635</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.325915748162321</v>
@@ -51299,7 +51035,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.365744376884404</v>
+        <v>1.363018025818077</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.30162874720941</v>
@@ -51388,7 +51124,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.371848267200614</v>
+        <v>1.367406683276954</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.361107244724652</v>
@@ -51477,7 +51213,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.387679205627586</v>
+        <v>1.383505375315013</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.229479520156436</v>
@@ -51566,7 +51302,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.382307540624784</v>
+        <v>1.373704106653522</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.393034216913961</v>
@@ -51655,7 +51391,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.401658616526614</v>
+        <v>1.393274699639033</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.156336904390059</v>
@@ -51744,7 +51480,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.411231667698485</v>
+        <v>1.402684418185956</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.259072045925433</v>
@@ -51833,7 +51569,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.407060824963858</v>
+        <v>1.40176490801863</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.257572939054848</v>
@@ -51922,7 +51658,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.407503129137283</v>
+        <v>1.403623689255488</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.189454945201851</v>
@@ -52011,7 +51747,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.409324894834941</v>
+        <v>1.405436964210455</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.219318876481934</v>
@@ -52100,7 +51836,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.42904981695168</v>
+        <v>1.410530279857957</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.144038521858151</v>
@@ -52189,7 +51925,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.393838968278907</v>
+        <v>1.384383911753738</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.09986527268488</v>
@@ -52278,7 +52014,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.383853680120247</v>
+        <v>1.374697688936097</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.312982622511155</v>
@@ -52367,7 +52103,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.409761837446078</v>
+        <v>1.397416820345281</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.270879136354317</v>
@@ -52456,7 +52192,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.424699957712923</v>
+        <v>1.408365676647608</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.365841977349152</v>
@@ -52545,7 +52281,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.425748123068149</v>
+        <v>1.408160299803092</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.158342932377404</v>
@@ -52634,7 +52370,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.406951128856317</v>
+        <v>1.391806762863971</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.194209889469005</v>
@@ -52723,7 +52459,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.399354531176346</v>
+        <v>1.381372176388277</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.257564531747063</v>
@@ -52812,7 +52548,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.404715698030812</v>
+        <v>1.383868896798415</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.308472373697423</v>
@@ -52901,7 +52637,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.425649750080278</v>
+        <v>1.407976200976158</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.337687539657583</v>
@@ -52990,7 +52726,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.443094609002677</v>
+        <v>1.422077888217827</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.199270549800725</v>
@@ -53079,7 +52815,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.452801747311251</v>
+        <v>1.428438150422488</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.146988512079861</v>
@@ -53168,7 +52904,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.437884223560064</v>
+        <v>1.414802747153859</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.207253332899701</v>
@@ -53257,7 +52993,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.439655056858966</v>
+        <v>1.417285569700319</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.15806720136263</v>
@@ -53346,7 +53082,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.397944722637958</v>
+        <v>1.379812314968912</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.249001170567646</v>
@@ -53435,7 +53171,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.409147988324123</v>
+        <v>1.391034280793895</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.193795322783568</v>
@@ -53524,7 +53260,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.446188230377926</v>
+        <v>1.424015699389716</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.139300438818794</v>
@@ -53613,7 +53349,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.445172877789485</v>
+        <v>1.423173598093115</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.372800747080936</v>
@@ -53702,7 +53438,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.402555208022304</v>
+        <v>1.387715202305561</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.282724152402174</v>
@@ -53791,7 +53527,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.361804622682709</v>
+        <v>1.353344795096786</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.153728637238463</v>
@@ -53880,7 +53616,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.361017544499098</v>
+        <v>1.354116001639275</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.126599615758518</v>
@@ -53969,7 +53705,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.387678176130586</v>
+        <v>1.371190529039938</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.149836058594254</v>
@@ -54058,7 +53794,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.387887219474689</v>
+        <v>1.37031645759248</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.14299102684207</v>
@@ -54147,7 +53883,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.369878741667902</v>
+        <v>1.353339038401599</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.156497281747526</v>
@@ -54236,7 +53972,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.327648297683834</v>
+        <v>1.31459896162477</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.175882547397818</v>
@@ -54325,7 +54061,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.322628522391914</v>
+        <v>1.309947875837704</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.190591165778253</v>
@@ -54414,7 +54150,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.319808017203085</v>
+        <v>1.306536015723063</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.200691920157738</v>
@@ -54503,7 +54239,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.334727486059732</v>
+        <v>1.323230947041128</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.138767462884149</v>
@@ -54592,7 +54328,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.330855398517186</v>
+        <v>1.318683945345279</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.175720684681386</v>
@@ -54681,7 +54417,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.365488516006679</v>
+        <v>1.345833560744813</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.222172347679656</v>
@@ -54770,7 +54506,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.365432211689216</v>
+        <v>1.341752110323675</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.106947017499951</v>
@@ -54859,7 +54595,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.357944006121912</v>
+        <v>1.339465254925464</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.127523425603601</v>
@@ -54948,7 +54684,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.368615269278502</v>
+        <v>1.350468964470277</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.07732621351667</v>
@@ -55037,7 +54773,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.378746281991351</v>
+        <v>1.35945851800361</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.023380393576378</v>
@@ -55126,7 +54862,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.435457074990344</v>
+        <v>1.404872850171399</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.058739752127047</v>
@@ -55215,7 +54951,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.373178971827165</v>
+        <v>1.347710148721469</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.177942116309767</v>
@@ -55304,7 +55040,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.365400062566405</v>
+        <v>1.348272723762317</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.253714094238578</v>
@@ -55393,7 +55129,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.3710189447268</v>
+        <v>1.354705194781294</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.310177741984098</v>
@@ -55482,7 +55218,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.381333507104034</v>
+        <v>1.359824297137549</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.154513103903812</v>
@@ -55571,7 +55307,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.434348468083629</v>
+        <v>1.40692796180182</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.245446101880249</v>
@@ -55660,7 +55396,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.441984403328363</v>
+        <v>1.409270001620025</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.241884182081176</v>
@@ -55749,7 +55485,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.429469253952878</v>
+        <v>1.396171074692106</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.322483188258203</v>
@@ -55838,7 +55574,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.424622930770232</v>
+        <v>1.38758810834509</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.249686844755138</v>
@@ -55927,7 +55663,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.429582540407402</v>
+        <v>1.389583138088263</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.29886519227235</v>
@@ -56016,7 +55752,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.407701600488535</v>
+        <v>1.374702672967478</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.223728775624174</v>
@@ -56105,7 +55841,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.416270509098803</v>
+        <v>1.379066775581198</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.173238524376774</v>
@@ -56194,7 +55930,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.417006181939403</v>
+        <v>1.381188071974309</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.242863565368455</v>
@@ -56283,7 +56019,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.41649953513633</v>
+        <v>1.374721037712095</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.143106576319261</v>
@@ -56372,7 +56108,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.437850310502</v>
+        <v>1.391428530194946</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.200356157157967</v>
@@ -56461,7 +56197,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.430200944045191</v>
+        <v>1.390575971044668</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.950343827970276</v>
@@ -56550,7 +56286,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.483287802494169</v>
+        <v>1.434624472070415</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.276683287201303</v>
@@ -56639,7 +56375,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.486586469061179</v>
+        <v>1.43861247170847</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.283269838583956</v>
@@ -56728,7 +56464,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.462955287806911</v>
+        <v>1.418263832310316</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.215387516260905</v>
@@ -56817,7 +56553,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.470207132704099</v>
+        <v>1.425630209698222</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.368081200047846</v>
@@ -56906,7 +56642,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.465393899604081</v>
+        <v>1.417521239803277</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.228860369769523</v>
@@ -56995,7 +56731,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.439835294280926</v>
+        <v>1.395343671819079</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.378825432642205</v>
@@ -57084,7 +56820,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.457262598461202</v>
+        <v>1.415362962714562</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.283103070427084</v>
@@ -57173,7 +56909,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.419346643518256</v>
+        <v>1.382960029226418</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.181996043036717</v>
